--- a/doc/requirement/RFID_UseCase_v1.0.xlsx
+++ b/doc/requirement/RFID_UseCase_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeHistory" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,9 @@
     <definedName name="LDC見積" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="ｌｌｌ" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="Nam" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ChangeHistory!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Cover!$A$1:$AP$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ChangeHistory!$A$1:$G$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Đăng kí thẻ'!$A$1:$AR$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Đăng kí thẻ'!$A$1:$AR$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Gọi tên'!$A$1:$AR$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Template!$A$1:$AR$92</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Cover!$1:4</definedName>
@@ -463,7 +463,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -843,7 +843,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -5355,6 +5355,75 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1882" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="3633" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5400,18 +5469,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5442,76 +5499,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7806,8 +7806,6 @@
     <cellStyle name="Calculation 87" xfId="1473"/>
     <cellStyle name="Calculation 88" xfId="1481"/>
     <cellStyle name="Calculation 9" xfId="184"/>
-    <cellStyle name="Comma0" xfId="2338"/>
-    <cellStyle name="Currency0" xfId="672"/>
     <cellStyle name="Check Cell 10" xfId="2728"/>
     <cellStyle name="Check Cell 11" xfId="2729"/>
     <cellStyle name="Check Cell 12" xfId="2730"/>
@@ -7895,6 +7893,8 @@
     <cellStyle name="Check Cell 87" xfId="637"/>
     <cellStyle name="Check Cell 88" xfId="641"/>
     <cellStyle name="Check Cell 9" xfId="2919"/>
+    <cellStyle name="Comma0" xfId="2338"/>
+    <cellStyle name="Currency0" xfId="672"/>
     <cellStyle name="Date" xfId="599"/>
     <cellStyle name="Explanatory Text 10" xfId="2933"/>
     <cellStyle name="Explanatory Text 11" xfId="2938"/>
@@ -8960,6 +8960,7 @@
     <cellStyle name="T_Book1_CMS_Detail design_Category" xfId="3586"/>
     <cellStyle name="T_Book1_CMS_Detail design_Management" xfId="3607"/>
     <cellStyle name="T_Book1_DD-Entity&amp;Db_Category" xfId="2796"/>
+    <cellStyle name="th" xfId="3608"/>
     <cellStyle name="Title 10" xfId="3645"/>
     <cellStyle name="Title 11" xfId="3116"/>
     <cellStyle name="Title 12" xfId="3052"/>
@@ -9134,7 +9135,6 @@
     <cellStyle name="Total 87" xfId="804"/>
     <cellStyle name="Total 88" xfId="227"/>
     <cellStyle name="Total 9" xfId="93"/>
-    <cellStyle name="th" xfId="3608"/>
     <cellStyle name="viet" xfId="3441"/>
     <cellStyle name="viet2" xfId="3417"/>
     <cellStyle name="Warning Text 10" xfId="1026"/>
@@ -9377,13 +9377,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>213826</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>126254</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9434,13 +9434,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>58316</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>5975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>38878</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9485,6 +9485,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>179918</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>184151</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>176831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B395FC-B2C9-4F03-9F6D-78F30A47138D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="179918" y="5990169"/>
+          <a:ext cx="10058400" cy="5436745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10019,14 +10074,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="110" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="110" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="110" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="110" customWidth="1"/>
-    <col min="5" max="5" width="64.875" style="110" customWidth="1"/>
-    <col min="6" max="16384" width="3.25" style="110"/>
+    <col min="1" max="1" width="6.140625" style="110" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="110" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="110" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="110" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" style="110" customWidth="1"/>
+    <col min="6" max="16384" width="3.28515625" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -10231,170 +10286,170 @@
       <selection activeCell="AE86" sqref="AE86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" width="3.125" style="1"/>
-    <col min="8" max="17" width="2.625" style="1" customWidth="1"/>
-    <col min="18" max="28" width="3.125" style="1"/>
-    <col min="29" max="29" width="22.75" style="1" customWidth="1"/>
+    <col min="1" max="7" width="3.140625" style="1"/>
+    <col min="8" max="17" width="2.5703125" style="1" customWidth="1"/>
+    <col min="18" max="28" width="3.140625" style="1"/>
+    <col min="29" max="29" width="22.7109375" style="1" customWidth="1"/>
     <col min="30" max="30" width="11" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.625" style="1" customWidth="1"/>
-    <col min="32" max="41" width="3.125" style="1"/>
+    <col min="31" max="31" width="13.5703125" style="1" customWidth="1"/>
+    <col min="32" max="41" width="3.140625" style="1"/>
     <col min="42" max="42" width="6" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="3.125" style="1"/>
+    <col min="43" max="16384" width="3.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="165" t="s">
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="166" t="s">
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="165" t="s">
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="167"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="126"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="144" t="s">
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="139">
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="131">
         <f>DATE(2017,1,30)</f>
         <v>42765</v>
       </c>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="139">
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="131">
         <f>DATE(2017,2,2)</f>
         <v>42768</v>
       </c>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="140"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="132"/>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="141"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="142"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="133"/>
+      <c r="AJ3" s="133"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="133"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="134"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="54"/>
@@ -10532,181 +10587,181 @@
     </row>
     <row r="7" spans="1:42" ht="12.75" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="151"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="152"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="170"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="170"/>
+      <c r="AJ7" s="170"/>
+      <c r="AK7" s="170"/>
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="170"/>
+      <c r="AO7" s="170"/>
+      <c r="AP7" s="171"/>
     </row>
     <row r="8" spans="1:42" ht="12.75" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="151"/>
-      <c r="AK8" s="151"/>
-      <c r="AL8" s="151"/>
-      <c r="AM8" s="151"/>
-      <c r="AN8" s="151"/>
-      <c r="AO8" s="151"/>
-      <c r="AP8" s="152"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="170"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="170"/>
+      <c r="AK8" s="170"/>
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="171"/>
     </row>
     <row r="9" spans="1:42" ht="12.75" customHeight="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
-      <c r="AE9" s="151"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="151"/>
-      <c r="AJ9" s="151"/>
-      <c r="AK9" s="151"/>
-      <c r="AL9" s="151"/>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151"/>
-      <c r="AP9" s="152"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
+      <c r="U9" s="170"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="170"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="170"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="170"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="170"/>
+      <c r="AL9" s="170"/>
+      <c r="AM9" s="170"/>
+      <c r="AN9" s="170"/>
+      <c r="AO9" s="170"/>
+      <c r="AP9" s="171"/>
     </row>
     <row r="10" spans="1:42" ht="12.75" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="151"/>
-      <c r="AJ10" s="151"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="151"/>
-      <c r="AM10" s="151"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="152"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="170"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="170"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="170"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="170"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="170"/>
+      <c r="AL10" s="170"/>
+      <c r="AM10" s="170"/>
+      <c r="AN10" s="170"/>
+      <c r="AO10" s="170"/>
+      <c r="AP10" s="171"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="54"/>
@@ -12528,46 +12583,46 @@
       <c r="C52" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="168" t="s">
+      <c r="D52" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="168" t="s">
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="168"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="168"/>
-      <c r="M52" s="168"/>
-      <c r="N52" s="168"/>
-      <c r="O52" s="168"/>
-      <c r="P52" s="168"/>
-      <c r="Q52" s="168"/>
-      <c r="R52" s="168"/>
-      <c r="S52" s="168"/>
-      <c r="T52" s="168"/>
-      <c r="U52" s="168"/>
-      <c r="V52" s="168"/>
-      <c r="W52" s="169" t="s">
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="127"/>
+      <c r="P52" s="127"/>
+      <c r="Q52" s="127"/>
+      <c r="R52" s="127"/>
+      <c r="S52" s="127"/>
+      <c r="T52" s="127"/>
+      <c r="U52" s="127"/>
+      <c r="V52" s="127"/>
+      <c r="W52" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="X52" s="170"/>
-      <c r="Y52" s="170"/>
-      <c r="Z52" s="170"/>
-      <c r="AA52" s="170"/>
-      <c r="AB52" s="170"/>
-      <c r="AC52" s="170"/>
-      <c r="AD52" s="170"/>
-      <c r="AE52" s="170"/>
-      <c r="AF52" s="170"/>
-      <c r="AG52" s="170"/>
-      <c r="AH52" s="170"/>
-      <c r="AI52" s="170"/>
-      <c r="AJ52" s="170"/>
-      <c r="AK52" s="171"/>
+      <c r="X52" s="129"/>
+      <c r="Y52" s="129"/>
+      <c r="Z52" s="129"/>
+      <c r="AA52" s="129"/>
+      <c r="AB52" s="129"/>
+      <c r="AC52" s="129"/>
+      <c r="AD52" s="129"/>
+      <c r="AE52" s="129"/>
+      <c r="AF52" s="129"/>
+      <c r="AG52" s="129"/>
+      <c r="AH52" s="129"/>
+      <c r="AI52" s="129"/>
+      <c r="AJ52" s="129"/>
+      <c r="AK52" s="130"/>
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
@@ -12580,46 +12635,46 @@
       <c r="C53" s="80">
         <v>1</v>
       </c>
-      <c r="D53" s="157" t="s">
+      <c r="D53" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="162" t="s">
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="163"/>
-      <c r="T53" s="163"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="164"/>
-      <c r="W53" s="158" t="s">
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
+      <c r="P53" s="137"/>
+      <c r="Q53" s="137"/>
+      <c r="R53" s="137"/>
+      <c r="S53" s="137"/>
+      <c r="T53" s="137"/>
+      <c r="U53" s="137"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="X53" s="159"/>
-      <c r="Y53" s="159"/>
-      <c r="Z53" s="159"/>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
-      <c r="AD53" s="159"/>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="159"/>
-      <c r="AG53" s="159"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="159"/>
-      <c r="AJ53" s="159"/>
-      <c r="AK53" s="160"/>
+      <c r="X53" s="140"/>
+      <c r="Y53" s="140"/>
+      <c r="Z53" s="140"/>
+      <c r="AA53" s="140"/>
+      <c r="AB53" s="140"/>
+      <c r="AC53" s="140"/>
+      <c r="AD53" s="140"/>
+      <c r="AE53" s="140"/>
+      <c r="AF53" s="140"/>
+      <c r="AG53" s="140"/>
+      <c r="AH53" s="140"/>
+      <c r="AI53" s="140"/>
+      <c r="AJ53" s="140"/>
+      <c r="AK53" s="141"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
@@ -12632,46 +12687,46 @@
       <c r="C54" s="80">
         <v>2</v>
       </c>
-      <c r="D54" s="156" t="s">
+      <c r="D54" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="162" t="s">
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="163"/>
-      <c r="J54" s="163"/>
-      <c r="K54" s="163"/>
-      <c r="L54" s="163"/>
-      <c r="M54" s="163"/>
-      <c r="N54" s="163"/>
-      <c r="O54" s="163"/>
-      <c r="P54" s="163"/>
-      <c r="Q54" s="163"/>
-      <c r="R54" s="163"/>
-      <c r="S54" s="163"/>
-      <c r="T54" s="163"/>
-      <c r="U54" s="163"/>
-      <c r="V54" s="164"/>
-      <c r="W54" s="158" t="s">
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="137"/>
+      <c r="L54" s="137"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="137"/>
+      <c r="O54" s="137"/>
+      <c r="P54" s="137"/>
+      <c r="Q54" s="137"/>
+      <c r="R54" s="137"/>
+      <c r="S54" s="137"/>
+      <c r="T54" s="137"/>
+      <c r="U54" s="137"/>
+      <c r="V54" s="138"/>
+      <c r="W54" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="X54" s="159"/>
-      <c r="Y54" s="159"/>
-      <c r="Z54" s="159"/>
-      <c r="AA54" s="159"/>
-      <c r="AB54" s="159"/>
-      <c r="AC54" s="159"/>
-      <c r="AD54" s="159"/>
-      <c r="AE54" s="159"/>
-      <c r="AF54" s="159"/>
-      <c r="AG54" s="159"/>
-      <c r="AH54" s="159"/>
-      <c r="AI54" s="159"/>
-      <c r="AJ54" s="159"/>
-      <c r="AK54" s="160"/>
+      <c r="X54" s="140"/>
+      <c r="Y54" s="140"/>
+      <c r="Z54" s="140"/>
+      <c r="AA54" s="140"/>
+      <c r="AB54" s="140"/>
+      <c r="AC54" s="140"/>
+      <c r="AD54" s="140"/>
+      <c r="AE54" s="140"/>
+      <c r="AF54" s="140"/>
+      <c r="AG54" s="140"/>
+      <c r="AH54" s="140"/>
+      <c r="AI54" s="140"/>
+      <c r="AJ54" s="140"/>
+      <c r="AK54" s="141"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
       <c r="AN54" s="5"/>
@@ -12684,46 +12739,46 @@
       <c r="C55" s="80">
         <v>3</v>
       </c>
-      <c r="D55" s="156" t="s">
+      <c r="D55" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="162" t="s">
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="163"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="163"/>
-      <c r="L55" s="163"/>
-      <c r="M55" s="163"/>
-      <c r="N55" s="163"/>
-      <c r="O55" s="163"/>
-      <c r="P55" s="163"/>
-      <c r="Q55" s="163"/>
-      <c r="R55" s="163"/>
-      <c r="S55" s="163"/>
-      <c r="T55" s="163"/>
-      <c r="U55" s="163"/>
-      <c r="V55" s="164"/>
-      <c r="W55" s="158" t="s">
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="137"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="137"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="137"/>
+      <c r="R55" s="137"/>
+      <c r="S55" s="137"/>
+      <c r="T55" s="137"/>
+      <c r="U55" s="137"/>
+      <c r="V55" s="138"/>
+      <c r="W55" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="X55" s="159"/>
-      <c r="Y55" s="159"/>
-      <c r="Z55" s="159"/>
-      <c r="AA55" s="159"/>
-      <c r="AB55" s="159"/>
-      <c r="AC55" s="159"/>
-      <c r="AD55" s="159"/>
-      <c r="AE55" s="159"/>
-      <c r="AF55" s="159"/>
-      <c r="AG55" s="159"/>
-      <c r="AH55" s="159"/>
-      <c r="AI55" s="159"/>
-      <c r="AJ55" s="159"/>
-      <c r="AK55" s="160"/>
+      <c r="X55" s="140"/>
+      <c r="Y55" s="140"/>
+      <c r="Z55" s="140"/>
+      <c r="AA55" s="140"/>
+      <c r="AB55" s="140"/>
+      <c r="AC55" s="140"/>
+      <c r="AD55" s="140"/>
+      <c r="AE55" s="140"/>
+      <c r="AF55" s="140"/>
+      <c r="AG55" s="140"/>
+      <c r="AH55" s="140"/>
+      <c r="AI55" s="140"/>
+      <c r="AJ55" s="140"/>
+      <c r="AK55" s="141"/>
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -12736,46 +12791,46 @@
       <c r="C56" s="80">
         <v>4</v>
       </c>
-      <c r="D56" s="156" t="s">
+      <c r="D56" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="162" t="s">
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="163"/>
-      <c r="M56" s="163"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="163"/>
-      <c r="P56" s="163"/>
-      <c r="Q56" s="163"/>
-      <c r="R56" s="163"/>
-      <c r="S56" s="163"/>
-      <c r="T56" s="163"/>
-      <c r="U56" s="163"/>
-      <c r="V56" s="164"/>
-      <c r="W56" s="158" t="s">
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="137"/>
+      <c r="O56" s="137"/>
+      <c r="P56" s="137"/>
+      <c r="Q56" s="137"/>
+      <c r="R56" s="137"/>
+      <c r="S56" s="137"/>
+      <c r="T56" s="137"/>
+      <c r="U56" s="137"/>
+      <c r="V56" s="138"/>
+      <c r="W56" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="X56" s="159"/>
-      <c r="Y56" s="159"/>
-      <c r="Z56" s="159"/>
-      <c r="AA56" s="159"/>
-      <c r="AB56" s="159"/>
-      <c r="AC56" s="159"/>
-      <c r="AD56" s="159"/>
-      <c r="AE56" s="159"/>
-      <c r="AF56" s="159"/>
-      <c r="AG56" s="159"/>
-      <c r="AH56" s="159"/>
-      <c r="AI56" s="159"/>
-      <c r="AJ56" s="159"/>
-      <c r="AK56" s="160"/>
+      <c r="X56" s="140"/>
+      <c r="Y56" s="140"/>
+      <c r="Z56" s="140"/>
+      <c r="AA56" s="140"/>
+      <c r="AB56" s="140"/>
+      <c r="AC56" s="140"/>
+      <c r="AD56" s="140"/>
+      <c r="AE56" s="140"/>
+      <c r="AF56" s="140"/>
+      <c r="AG56" s="140"/>
+      <c r="AH56" s="140"/>
+      <c r="AI56" s="140"/>
+      <c r="AJ56" s="140"/>
+      <c r="AK56" s="141"/>
       <c r="AL56" s="5"/>
       <c r="AM56" s="5"/>
       <c r="AN56" s="5"/>
@@ -12788,46 +12843,46 @@
       <c r="C57" s="80">
         <v>5</v>
       </c>
-      <c r="D57" s="156" t="s">
+      <c r="D57" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="158" t="s">
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="159"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="159"/>
-      <c r="N57" s="159"/>
-      <c r="O57" s="159"/>
-      <c r="P57" s="159"/>
-      <c r="Q57" s="159"/>
-      <c r="R57" s="159"/>
-      <c r="S57" s="159"/>
-      <c r="T57" s="159"/>
-      <c r="U57" s="159"/>
-      <c r="V57" s="160"/>
-      <c r="W57" s="158" t="s">
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="140"/>
+      <c r="M57" s="140"/>
+      <c r="N57" s="140"/>
+      <c r="O57" s="140"/>
+      <c r="P57" s="140"/>
+      <c r="Q57" s="140"/>
+      <c r="R57" s="140"/>
+      <c r="S57" s="140"/>
+      <c r="T57" s="140"/>
+      <c r="U57" s="140"/>
+      <c r="V57" s="141"/>
+      <c r="W57" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="X57" s="159"/>
-      <c r="Y57" s="159"/>
-      <c r="Z57" s="159"/>
-      <c r="AA57" s="159"/>
-      <c r="AB57" s="159"/>
-      <c r="AC57" s="159"/>
-      <c r="AD57" s="159"/>
-      <c r="AE57" s="159"/>
-      <c r="AF57" s="159"/>
-      <c r="AG57" s="159"/>
-      <c r="AH57" s="159"/>
-      <c r="AI57" s="159"/>
-      <c r="AJ57" s="159"/>
-      <c r="AK57" s="160"/>
+      <c r="X57" s="140"/>
+      <c r="Y57" s="140"/>
+      <c r="Z57" s="140"/>
+      <c r="AA57" s="140"/>
+      <c r="AB57" s="140"/>
+      <c r="AC57" s="140"/>
+      <c r="AD57" s="140"/>
+      <c r="AE57" s="140"/>
+      <c r="AF57" s="140"/>
+      <c r="AG57" s="140"/>
+      <c r="AH57" s="140"/>
+      <c r="AI57" s="140"/>
+      <c r="AJ57" s="140"/>
+      <c r="AK57" s="141"/>
       <c r="AL57" s="5"/>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
@@ -12929,45 +12984,45 @@
       <c r="B60" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="161" t="s">
+      <c r="C60" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161" t="s">
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="I60" s="161"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="161"/>
-      <c r="M60" s="161"/>
-      <c r="N60" s="161"/>
-      <c r="O60" s="161"/>
-      <c r="P60" s="161"/>
-      <c r="Q60" s="161"/>
-      <c r="R60" s="161" t="s">
+      <c r="I60" s="143"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="143"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
+      <c r="P60" s="143"/>
+      <c r="Q60" s="143"/>
+      <c r="R60" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="S60" s="161"/>
-      <c r="T60" s="161"/>
-      <c r="U60" s="161"/>
-      <c r="V60" s="161"/>
-      <c r="W60" s="161"/>
-      <c r="X60" s="161"/>
-      <c r="Y60" s="161"/>
-      <c r="Z60" s="161"/>
-      <c r="AA60" s="161"/>
-      <c r="AB60" s="161"/>
-      <c r="AC60" s="161"/>
-      <c r="AD60" s="161"/>
-      <c r="AE60" s="161"/>
-      <c r="AF60" s="161"/>
-      <c r="AG60" s="161"/>
-      <c r="AH60" s="161"/>
-      <c r="AI60" s="161"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="143"/>
+      <c r="U60" s="143"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="143"/>
+      <c r="X60" s="143"/>
+      <c r="Y60" s="143"/>
+      <c r="Z60" s="143"/>
+      <c r="AA60" s="143"/>
+      <c r="AB60" s="143"/>
+      <c r="AC60" s="143"/>
+      <c r="AD60" s="143"/>
+      <c r="AE60" s="143"/>
+      <c r="AF60" s="143"/>
+      <c r="AG60" s="143"/>
+      <c r="AH60" s="143"/>
+      <c r="AI60" s="143"/>
       <c r="AJ60" s="64"/>
       <c r="AK60" s="64"/>
       <c r="AL60" s="64"/>
@@ -12981,13 +13036,13 @@
       <c r="B61" s="83">
         <v>1</v>
       </c>
-      <c r="C61" s="124" t="s">
+      <c r="C61" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="126"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="149"/>
       <c r="H61" s="84" t="s">
         <v>47</v>
       </c>
@@ -13000,26 +13055,26 @@
       <c r="O61" s="88"/>
       <c r="P61" s="88"/>
       <c r="Q61" s="88"/>
-      <c r="R61" s="153" t="s">
+      <c r="R61" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="S61" s="154"/>
-      <c r="T61" s="154"/>
-      <c r="U61" s="154"/>
-      <c r="V61" s="154"/>
-      <c r="W61" s="154"/>
-      <c r="X61" s="154"/>
-      <c r="Y61" s="154"/>
-      <c r="Z61" s="154"/>
-      <c r="AA61" s="154"/>
-      <c r="AB61" s="154"/>
-      <c r="AC61" s="154"/>
-      <c r="AD61" s="154"/>
-      <c r="AE61" s="154"/>
-      <c r="AF61" s="154"/>
-      <c r="AG61" s="154"/>
-      <c r="AH61" s="154"/>
-      <c r="AI61" s="155"/>
+      <c r="S61" s="145"/>
+      <c r="T61" s="145"/>
+      <c r="U61" s="145"/>
+      <c r="V61" s="145"/>
+      <c r="W61" s="145"/>
+      <c r="X61" s="145"/>
+      <c r="Y61" s="145"/>
+      <c r="Z61" s="145"/>
+      <c r="AA61" s="145"/>
+      <c r="AB61" s="145"/>
+      <c r="AC61" s="145"/>
+      <c r="AD61" s="145"/>
+      <c r="AE61" s="145"/>
+      <c r="AF61" s="145"/>
+      <c r="AG61" s="145"/>
+      <c r="AH61" s="145"/>
+      <c r="AI61" s="146"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
       <c r="AL61" s="5"/>
@@ -13033,13 +13088,13 @@
       <c r="B62" s="86">
         <v>2</v>
       </c>
-      <c r="C62" s="124" t="s">
+      <c r="C62" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="126"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="149"/>
       <c r="H62" s="87" t="s">
         <v>50</v>
       </c>
@@ -13052,26 +13107,26 @@
       <c r="O62" s="90"/>
       <c r="P62" s="90"/>
       <c r="Q62" s="90"/>
-      <c r="R62" s="127" t="s">
+      <c r="R62" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="S62" s="128"/>
-      <c r="T62" s="128"/>
-      <c r="U62" s="128"/>
-      <c r="V62" s="128"/>
-      <c r="W62" s="128"/>
-      <c r="X62" s="128"/>
-      <c r="Y62" s="128"/>
-      <c r="Z62" s="128"/>
-      <c r="AA62" s="128"/>
-      <c r="AB62" s="128"/>
-      <c r="AC62" s="128"/>
-      <c r="AD62" s="128"/>
-      <c r="AE62" s="128"/>
-      <c r="AF62" s="128"/>
-      <c r="AG62" s="128"/>
-      <c r="AH62" s="128"/>
-      <c r="AI62" s="129"/>
+      <c r="S62" s="151"/>
+      <c r="T62" s="151"/>
+      <c r="U62" s="151"/>
+      <c r="V62" s="151"/>
+      <c r="W62" s="151"/>
+      <c r="X62" s="151"/>
+      <c r="Y62" s="151"/>
+      <c r="Z62" s="151"/>
+      <c r="AA62" s="151"/>
+      <c r="AB62" s="151"/>
+      <c r="AC62" s="151"/>
+      <c r="AD62" s="151"/>
+      <c r="AE62" s="151"/>
+      <c r="AF62" s="151"/>
+      <c r="AG62" s="151"/>
+      <c r="AH62" s="151"/>
+      <c r="AI62" s="152"/>
       <c r="AJ62" s="55"/>
       <c r="AK62" s="55"/>
       <c r="AL62" s="55"/>
@@ -13085,13 +13140,13 @@
       <c r="B63" s="86">
         <v>3</v>
       </c>
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="126"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="149"/>
       <c r="H63" s="87" t="s">
         <v>53</v>
       </c>
@@ -13104,26 +13159,26 @@
       <c r="O63" s="90"/>
       <c r="P63" s="90"/>
       <c r="Q63" s="90"/>
-      <c r="R63" s="127" t="s">
+      <c r="R63" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="128"/>
-      <c r="T63" s="128"/>
-      <c r="U63" s="128"/>
-      <c r="V63" s="128"/>
-      <c r="W63" s="128"/>
-      <c r="X63" s="128"/>
-      <c r="Y63" s="128"/>
-      <c r="Z63" s="128"/>
-      <c r="AA63" s="128"/>
-      <c r="AB63" s="128"/>
-      <c r="AC63" s="128"/>
-      <c r="AD63" s="128"/>
-      <c r="AE63" s="128"/>
-      <c r="AF63" s="128"/>
-      <c r="AG63" s="128"/>
-      <c r="AH63" s="128"/>
-      <c r="AI63" s="129"/>
+      <c r="S63" s="151"/>
+      <c r="T63" s="151"/>
+      <c r="U63" s="151"/>
+      <c r="V63" s="151"/>
+      <c r="W63" s="151"/>
+      <c r="X63" s="151"/>
+      <c r="Y63" s="151"/>
+      <c r="Z63" s="151"/>
+      <c r="AA63" s="151"/>
+      <c r="AB63" s="151"/>
+      <c r="AC63" s="151"/>
+      <c r="AD63" s="151"/>
+      <c r="AE63" s="151"/>
+      <c r="AF63" s="151"/>
+      <c r="AG63" s="151"/>
+      <c r="AH63" s="151"/>
+      <c r="AI63" s="152"/>
       <c r="AJ63" s="55"/>
       <c r="AK63" s="55"/>
       <c r="AL63" s="55"/>
@@ -13143,13 +13198,13 @@
       <c r="B64" s="86">
         <v>4</v>
       </c>
-      <c r="C64" s="124" t="s">
+      <c r="C64" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="126"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="149"/>
       <c r="H64" s="87" t="s">
         <v>56</v>
       </c>
@@ -13162,26 +13217,26 @@
       <c r="O64" s="90"/>
       <c r="P64" s="90"/>
       <c r="Q64" s="90"/>
-      <c r="R64" s="127" t="s">
+      <c r="R64" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="S64" s="128"/>
-      <c r="T64" s="128"/>
-      <c r="U64" s="128"/>
-      <c r="V64" s="128"/>
-      <c r="W64" s="128"/>
-      <c r="X64" s="128"/>
-      <c r="Y64" s="128"/>
-      <c r="Z64" s="128"/>
-      <c r="AA64" s="128"/>
-      <c r="AB64" s="128"/>
-      <c r="AC64" s="128"/>
-      <c r="AD64" s="128"/>
-      <c r="AE64" s="128"/>
-      <c r="AF64" s="128"/>
-      <c r="AG64" s="128"/>
-      <c r="AH64" s="128"/>
-      <c r="AI64" s="129"/>
+      <c r="S64" s="151"/>
+      <c r="T64" s="151"/>
+      <c r="U64" s="151"/>
+      <c r="V64" s="151"/>
+      <c r="W64" s="151"/>
+      <c r="X64" s="151"/>
+      <c r="Y64" s="151"/>
+      <c r="Z64" s="151"/>
+      <c r="AA64" s="151"/>
+      <c r="AB64" s="151"/>
+      <c r="AC64" s="151"/>
+      <c r="AD64" s="151"/>
+      <c r="AE64" s="151"/>
+      <c r="AF64" s="151"/>
+      <c r="AG64" s="151"/>
+      <c r="AH64" s="151"/>
+      <c r="AI64" s="152"/>
       <c r="AJ64" s="55"/>
       <c r="AK64" s="55"/>
       <c r="AL64" s="55"/>
@@ -13201,13 +13256,13 @@
       <c r="B65" s="86">
         <v>5</v>
       </c>
-      <c r="C65" s="124" t="s">
+      <c r="C65" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="126"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="149"/>
       <c r="H65" s="87" t="s">
         <v>59</v>
       </c>
@@ -13220,26 +13275,26 @@
       <c r="O65" s="90"/>
       <c r="P65" s="90"/>
       <c r="Q65" s="90"/>
-      <c r="R65" s="127" t="s">
+      <c r="R65" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="S65" s="128"/>
-      <c r="T65" s="128"/>
-      <c r="U65" s="128"/>
-      <c r="V65" s="128"/>
-      <c r="W65" s="128"/>
-      <c r="X65" s="128"/>
-      <c r="Y65" s="128"/>
-      <c r="Z65" s="128"/>
-      <c r="AA65" s="128"/>
-      <c r="AB65" s="128"/>
-      <c r="AC65" s="128"/>
-      <c r="AD65" s="128"/>
-      <c r="AE65" s="128"/>
-      <c r="AF65" s="128"/>
-      <c r="AG65" s="128"/>
-      <c r="AH65" s="128"/>
-      <c r="AI65" s="129"/>
+      <c r="S65" s="151"/>
+      <c r="T65" s="151"/>
+      <c r="U65" s="151"/>
+      <c r="V65" s="151"/>
+      <c r="W65" s="151"/>
+      <c r="X65" s="151"/>
+      <c r="Y65" s="151"/>
+      <c r="Z65" s="151"/>
+      <c r="AA65" s="151"/>
+      <c r="AB65" s="151"/>
+      <c r="AC65" s="151"/>
+      <c r="AD65" s="151"/>
+      <c r="AE65" s="151"/>
+      <c r="AF65" s="151"/>
+      <c r="AG65" s="151"/>
+      <c r="AH65" s="151"/>
+      <c r="AI65" s="152"/>
       <c r="AJ65" s="55"/>
       <c r="AK65" s="55"/>
       <c r="AL65" s="55"/>
@@ -13259,13 +13314,13 @@
       <c r="B66" s="86">
         <v>6</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="126"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="149"/>
       <c r="H66" s="87" t="s">
         <v>62</v>
       </c>
@@ -13278,26 +13333,26 @@
       <c r="O66" s="90"/>
       <c r="P66" s="90"/>
       <c r="Q66" s="90"/>
-      <c r="R66" s="127" t="s">
+      <c r="R66" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="S66" s="128"/>
-      <c r="T66" s="128"/>
-      <c r="U66" s="128"/>
-      <c r="V66" s="128"/>
-      <c r="W66" s="128"/>
-      <c r="X66" s="128"/>
-      <c r="Y66" s="128"/>
-      <c r="Z66" s="128"/>
-      <c r="AA66" s="128"/>
-      <c r="AB66" s="128"/>
-      <c r="AC66" s="128"/>
-      <c r="AD66" s="128"/>
-      <c r="AE66" s="128"/>
-      <c r="AF66" s="128"/>
-      <c r="AG66" s="128"/>
-      <c r="AH66" s="128"/>
-      <c r="AI66" s="129"/>
+      <c r="S66" s="151"/>
+      <c r="T66" s="151"/>
+      <c r="U66" s="151"/>
+      <c r="V66" s="151"/>
+      <c r="W66" s="151"/>
+      <c r="X66" s="151"/>
+      <c r="Y66" s="151"/>
+      <c r="Z66" s="151"/>
+      <c r="AA66" s="151"/>
+      <c r="AB66" s="151"/>
+      <c r="AC66" s="151"/>
+      <c r="AD66" s="151"/>
+      <c r="AE66" s="151"/>
+      <c r="AF66" s="151"/>
+      <c r="AG66" s="151"/>
+      <c r="AH66" s="151"/>
+      <c r="AI66" s="152"/>
       <c r="AJ66" s="55"/>
       <c r="AK66" s="55"/>
       <c r="AL66" s="55"/>
@@ -13317,11 +13372,11 @@
       <c r="B67" s="86">
         <v>7</v>
       </c>
-      <c r="C67" s="124"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="126"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="149"/>
       <c r="H67" s="87"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
@@ -13332,24 +13387,24 @@
       <c r="O67" s="90"/>
       <c r="P67" s="90"/>
       <c r="Q67" s="90"/>
-      <c r="R67" s="127"/>
-      <c r="S67" s="128"/>
-      <c r="T67" s="128"/>
-      <c r="U67" s="128"/>
-      <c r="V67" s="128"/>
-      <c r="W67" s="128"/>
-      <c r="X67" s="128"/>
-      <c r="Y67" s="128"/>
-      <c r="Z67" s="128"/>
-      <c r="AA67" s="128"/>
-      <c r="AB67" s="128"/>
-      <c r="AC67" s="128"/>
-      <c r="AD67" s="128"/>
-      <c r="AE67" s="128"/>
-      <c r="AF67" s="128"/>
-      <c r="AG67" s="128"/>
-      <c r="AH67" s="128"/>
-      <c r="AI67" s="129"/>
+      <c r="R67" s="150"/>
+      <c r="S67" s="151"/>
+      <c r="T67" s="151"/>
+      <c r="U67" s="151"/>
+      <c r="V67" s="151"/>
+      <c r="W67" s="151"/>
+      <c r="X67" s="151"/>
+      <c r="Y67" s="151"/>
+      <c r="Z67" s="151"/>
+      <c r="AA67" s="151"/>
+      <c r="AB67" s="151"/>
+      <c r="AC67" s="151"/>
+      <c r="AD67" s="151"/>
+      <c r="AE67" s="151"/>
+      <c r="AF67" s="151"/>
+      <c r="AG67" s="151"/>
+      <c r="AH67" s="151"/>
+      <c r="AI67" s="152"/>
       <c r="AJ67" s="55"/>
       <c r="AK67" s="55"/>
       <c r="AL67" s="55"/>
@@ -13369,11 +13424,11 @@
       <c r="B68" s="97">
         <v>8</v>
       </c>
-      <c r="C68" s="124"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="126"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="149"/>
       <c r="H68" s="98"/>
       <c r="I68" s="99"/>
       <c r="J68" s="99"/>
@@ -13384,24 +13439,24 @@
       <c r="O68" s="99"/>
       <c r="P68" s="99"/>
       <c r="Q68" s="99"/>
-      <c r="R68" s="130"/>
-      <c r="S68" s="131"/>
-      <c r="T68" s="131"/>
-      <c r="U68" s="131"/>
-      <c r="V68" s="131"/>
-      <c r="W68" s="131"/>
-      <c r="X68" s="131"/>
-      <c r="Y68" s="131"/>
-      <c r="Z68" s="131"/>
-      <c r="AA68" s="131"/>
-      <c r="AB68" s="131"/>
-      <c r="AC68" s="131"/>
-      <c r="AD68" s="131"/>
-      <c r="AE68" s="131"/>
-      <c r="AF68" s="131"/>
-      <c r="AG68" s="131"/>
-      <c r="AH68" s="131"/>
-      <c r="AI68" s="132"/>
+      <c r="R68" s="153"/>
+      <c r="S68" s="154"/>
+      <c r="T68" s="154"/>
+      <c r="U68" s="154"/>
+      <c r="V68" s="154"/>
+      <c r="W68" s="154"/>
+      <c r="X68" s="154"/>
+      <c r="Y68" s="154"/>
+      <c r="Z68" s="154"/>
+      <c r="AA68" s="154"/>
+      <c r="AB68" s="154"/>
+      <c r="AC68" s="154"/>
+      <c r="AD68" s="154"/>
+      <c r="AE68" s="154"/>
+      <c r="AF68" s="154"/>
+      <c r="AG68" s="154"/>
+      <c r="AH68" s="154"/>
+      <c r="AI68" s="155"/>
       <c r="AJ68" s="55"/>
       <c r="AK68" s="55"/>
       <c r="AL68" s="55"/>
@@ -14649,37 +14704,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:V52"/>
-    <mergeCell ref="W52:AK52"/>
-    <mergeCell ref="AM2:AP3"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:V53"/>
-    <mergeCell ref="W53:AK53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:V54"/>
-    <mergeCell ref="W54:AK54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:V55"/>
-    <mergeCell ref="W55:AK55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:V56"/>
-    <mergeCell ref="W56:AK56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:V57"/>
-    <mergeCell ref="W57:AK57"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:Q60"/>
-    <mergeCell ref="R60:AI60"/>
-    <mergeCell ref="R61:AI61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="R62:AI62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="R63:AI63"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="R67:AI67"/>
     <mergeCell ref="C68:G68"/>
@@ -14696,6 +14720,37 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="R66:AI66"/>
     <mergeCell ref="C61:G61"/>
+    <mergeCell ref="R61:AI61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="R62:AI62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="R63:AI63"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:V57"/>
+    <mergeCell ref="W57:AK57"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="R60:AI60"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:V55"/>
+    <mergeCell ref="W55:AK55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:V56"/>
+    <mergeCell ref="W56:AK56"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:V53"/>
+    <mergeCell ref="W53:AK53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:V54"/>
+    <mergeCell ref="W54:AK54"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:V52"/>
+    <mergeCell ref="W52:AK52"/>
+    <mergeCell ref="AM2:AP3"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
@@ -14714,188 +14769,188 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AR72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AX61" sqref="AX61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="3"/>
-    <col min="2" max="2" width="3.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="3.375" style="3"/>
+    <col min="1" max="1" width="3.42578125" style="3"/>
+    <col min="2" max="2" width="3.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="3.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="176" t="s">
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176" t="s">
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="165" t="s">
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="166" t="s">
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="165" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="167"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="126"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="133" t="str">
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="156" t="str">
         <f>T2</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="175" t="str">
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="172" t="str">
         <f>Cover!C61</f>
         <v>UC_001</v>
       </c>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175" t="str">
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172" t="str">
         <f>Cover!H61</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="133" t="s">
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="131">
         <f>DATE(2016,2,3)</f>
         <v>42403</v>
       </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139">
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="131">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="140"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="132"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="142"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="133"/>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="134"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -16596,9 +16651,9 @@
       <c r="AJ39" s="28"/>
       <c r="AK39" s="28"/>
       <c r="AL39" s="28"/>
-      <c r="AM39" s="172"/>
-      <c r="AN39" s="172"/>
-      <c r="AO39" s="172"/>
+      <c r="AM39" s="175"/>
+      <c r="AN39" s="175"/>
+      <c r="AO39" s="175"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="23"/>
@@ -16642,9 +16697,9 @@
       <c r="AJ40" s="28"/>
       <c r="AK40" s="28"/>
       <c r="AL40" s="28"/>
-      <c r="AM40" s="172"/>
-      <c r="AN40" s="172"/>
-      <c r="AO40" s="172"/>
+      <c r="AM40" s="175"/>
+      <c r="AN40" s="175"/>
+      <c r="AO40" s="175"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="23"/>
@@ -16749,33 +16804,33 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="173"/>
-      <c r="U43" s="173"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
-      <c r="X43" s="173"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="173"/>
-      <c r="AA43" s="173"/>
-      <c r="AB43" s="173"/>
-      <c r="AC43" s="173"/>
-      <c r="AD43" s="173"/>
-      <c r="AE43" s="173"/>
-      <c r="AF43" s="173"/>
-      <c r="AG43" s="173"/>
-      <c r="AH43" s="173"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="176"/>
+      <c r="O43" s="176"/>
+      <c r="P43" s="176"/>
+      <c r="Q43" s="176"/>
+      <c r="R43" s="176"/>
+      <c r="S43" s="176"/>
+      <c r="T43" s="176"/>
+      <c r="U43" s="176"/>
+      <c r="V43" s="176"/>
+      <c r="W43" s="176"/>
+      <c r="X43" s="176"/>
+      <c r="Y43" s="176"/>
+      <c r="Z43" s="176"/>
+      <c r="AA43" s="176"/>
+      <c r="AB43" s="176"/>
+      <c r="AC43" s="176"/>
+      <c r="AD43" s="176"/>
+      <c r="AE43" s="176"/>
+      <c r="AF43" s="176"/>
+      <c r="AG43" s="176"/>
+      <c r="AH43" s="176"/>
       <c r="AI43" s="53"/>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="28"/>
@@ -16795,33 +16850,33 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-      <c r="O44" s="173"/>
-      <c r="P44" s="173"/>
-      <c r="Q44" s="173"/>
-      <c r="R44" s="173"/>
-      <c r="S44" s="173"/>
-      <c r="T44" s="173"/>
-      <c r="U44" s="173"/>
-      <c r="V44" s="173"/>
-      <c r="W44" s="173"/>
-      <c r="X44" s="173"/>
-      <c r="Y44" s="173"/>
-      <c r="Z44" s="173"/>
-      <c r="AA44" s="173"/>
-      <c r="AB44" s="173"/>
-      <c r="AC44" s="173"/>
-      <c r="AD44" s="173"/>
-      <c r="AE44" s="173"/>
-      <c r="AF44" s="173"/>
-      <c r="AG44" s="173"/>
-      <c r="AH44" s="173"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="176"/>
+      <c r="O44" s="176"/>
+      <c r="P44" s="176"/>
+      <c r="Q44" s="176"/>
+      <c r="R44" s="176"/>
+      <c r="S44" s="176"/>
+      <c r="T44" s="176"/>
+      <c r="U44" s="176"/>
+      <c r="V44" s="176"/>
+      <c r="W44" s="176"/>
+      <c r="X44" s="176"/>
+      <c r="Y44" s="176"/>
+      <c r="Z44" s="176"/>
+      <c r="AA44" s="176"/>
+      <c r="AB44" s="176"/>
+      <c r="AC44" s="176"/>
+      <c r="AD44" s="176"/>
+      <c r="AE44" s="176"/>
+      <c r="AF44" s="176"/>
+      <c r="AG44" s="176"/>
+      <c r="AH44" s="176"/>
       <c r="AI44" s="28"/>
       <c r="AJ44" s="28"/>
       <c r="AK44" s="28"/>
@@ -16879,7 +16934,7 @@
       <c r="AQ45" s="5"/>
       <c r="AR45" s="23"/>
     </row>
-    <row r="46" spans="1:44" ht="14.25">
+    <row r="46" spans="1:44" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="28"/>
       <c r="C46" s="45"/>
@@ -16971,7 +17026,7 @@
       <c r="AQ47" s="5"/>
       <c r="AR47" s="23"/>
     </row>
-    <row r="48" spans="1:44" ht="14.25">
+    <row r="48" spans="1:44" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="28"/>
       <c r="C48" s="45"/>
@@ -17017,7 +17072,7 @@
       <c r="AQ48" s="5"/>
       <c r="AR48" s="23"/>
     </row>
-    <row r="49" spans="1:44" ht="14.25">
+    <row r="49" spans="1:44" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="28"/>
       <c r="C49" s="45"/>
@@ -17063,7 +17118,7 @@
       <c r="AQ49" s="5"/>
       <c r="AR49" s="23"/>
     </row>
-    <row r="50" spans="1:44" ht="14.25">
+    <row r="50" spans="1:44" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="28"/>
       <c r="C50" s="45"/>
@@ -17109,7 +17164,7 @@
       <c r="AQ50" s="5"/>
       <c r="AR50" s="23"/>
     </row>
-    <row r="51" spans="1:44" ht="14.25">
+    <row r="51" spans="1:44" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="28"/>
       <c r="C51" s="45"/>
@@ -17155,7 +17210,7 @@
       <c r="AQ51" s="5"/>
       <c r="AR51" s="23"/>
     </row>
-    <row r="52" spans="1:44" ht="14.25">
+    <row r="52" spans="1:44" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="28"/>
       <c r="C52" s="45"/>
@@ -17201,7 +17256,7 @@
       <c r="AQ52" s="5"/>
       <c r="AR52" s="23"/>
     </row>
-    <row r="53" spans="1:44" ht="14.25">
+    <row r="53" spans="1:44" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="28"/>
       <c r="C53" s="45"/>
@@ -17247,7 +17302,7 @@
       <c r="AQ53" s="5"/>
       <c r="AR53" s="23"/>
     </row>
-    <row r="54" spans="1:44" ht="14.25">
+    <row r="54" spans="1:44" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="28"/>
       <c r="C54" s="45"/>
@@ -17293,7 +17348,7 @@
       <c r="AQ54" s="5"/>
       <c r="AR54" s="23"/>
     </row>
-    <row r="55" spans="1:44" ht="14.25">
+    <row r="55" spans="1:44" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="28"/>
       <c r="C55" s="45"/>
@@ -17339,7 +17394,7 @@
       <c r="AQ55" s="5"/>
       <c r="AR55" s="23"/>
     </row>
-    <row r="56" spans="1:44" ht="14.25">
+    <row r="56" spans="1:44" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="28"/>
       <c r="C56" s="45"/>
@@ -17385,7 +17440,7 @@
       <c r="AQ56" s="5"/>
       <c r="AR56" s="23"/>
     </row>
-    <row r="57" spans="1:44" ht="14.25">
+    <row r="57" spans="1:44" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="28"/>
       <c r="C57" s="45"/>
@@ -17431,7 +17486,7 @@
       <c r="AQ57" s="5"/>
       <c r="AR57" s="23"/>
     </row>
-    <row r="58" spans="1:44" ht="14.25">
+    <row r="58" spans="1:44" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="28"/>
       <c r="C58" s="45"/>
@@ -17477,7 +17532,7 @@
       <c r="AQ58" s="5"/>
       <c r="AR58" s="23"/>
     </row>
-    <row r="59" spans="1:44" ht="14.25">
+    <row r="59" spans="1:44" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="28"/>
       <c r="C59" s="45"/>
@@ -17523,7 +17578,7 @@
       <c r="AQ59" s="5"/>
       <c r="AR59" s="23"/>
     </row>
-    <row r="60" spans="1:44" ht="14.25">
+    <row r="60" spans="1:44" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="28"/>
       <c r="C60" s="45"/>
@@ -17569,7 +17624,7 @@
       <c r="AQ60" s="5"/>
       <c r="AR60" s="23"/>
     </row>
-    <row r="61" spans="1:44" ht="14.25">
+    <row r="61" spans="1:44" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="28"/>
       <c r="C61" s="45"/>
@@ -17615,7 +17670,7 @@
       <c r="AQ61" s="5"/>
       <c r="AR61" s="23"/>
     </row>
-    <row r="62" spans="1:44" ht="14.25">
+    <row r="62" spans="1:44" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="28"/>
       <c r="C62" s="45"/>
@@ -17647,7 +17702,7 @@
       <c r="AC62" s="44"/>
       <c r="AD62" s="44"/>
       <c r="AE62" s="44"/>
-      <c r="AF62" s="50"/>
+      <c r="AF62" s="44"/>
       <c r="AG62" s="44"/>
       <c r="AH62" s="44"/>
       <c r="AI62" s="28"/>
@@ -17661,7 +17716,7 @@
       <c r="AQ62" s="5"/>
       <c r="AR62" s="23"/>
     </row>
-    <row r="63" spans="1:44" ht="14.25">
+    <row r="63" spans="1:44" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="28"/>
       <c r="C63" s="45"/>
@@ -17707,7 +17762,7 @@
       <c r="AQ63" s="5"/>
       <c r="AR63" s="23"/>
     </row>
-    <row r="64" spans="1:44" ht="14.25">
+    <row r="64" spans="1:44" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="28"/>
       <c r="C64" s="45"/>
@@ -17715,33 +17770,33 @@
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
       <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="52"/>
-      <c r="AD64" s="52"/>
-      <c r="AE64" s="52"/>
-      <c r="AF64" s="52"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="28"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
       <c r="AI64" s="28"/>
       <c r="AJ64" s="28"/>
       <c r="AK64" s="28"/>
@@ -17753,7 +17808,7 @@
       <c r="AQ64" s="5"/>
       <c r="AR64" s="23"/>
     </row>
-    <row r="65" spans="1:44" ht="14.25">
+    <row r="65" spans="1:44" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="28"/>
       <c r="C65" s="45"/>
@@ -17761,33 +17816,33 @@
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="52"/>
-      <c r="AD65" s="52"/>
-      <c r="AE65" s="52"/>
-      <c r="AF65" s="52"/>
-      <c r="AG65" s="28"/>
-      <c r="AH65" s="28"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="44"/>
+      <c r="AH65" s="44"/>
       <c r="AI65" s="28"/>
       <c r="AJ65" s="28"/>
       <c r="AK65" s="28"/>
@@ -17799,100 +17854,342 @@
       <c r="AQ65" s="5"/>
       <c r="AR65" s="23"/>
     </row>
-    <row r="66" spans="1:44">
+    <row r="66" spans="1:44" ht="15">
       <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-      <c r="AM66" s="5"/>
-      <c r="AN66" s="5"/>
-      <c r="AO66" s="5"/>
-      <c r="AP66" s="5"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="44"/>
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="44"/>
+      <c r="AI66" s="28"/>
+      <c r="AJ66" s="28"/>
+      <c r="AK66" s="28"/>
+      <c r="AL66" s="28"/>
+      <c r="AM66" s="28"/>
+      <c r="AN66" s="28"/>
+      <c r="AO66" s="28"/>
+      <c r="AP66" s="28"/>
       <c r="AQ66" s="5"/>
       <c r="AR66" s="23"/>
     </row>
-    <row r="67" spans="1:44">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="17"/>
-      <c r="AC67" s="17"/>
-      <c r="AD67" s="17"/>
-      <c r="AE67" s="17"/>
-      <c r="AF67" s="17"/>
-      <c r="AG67" s="17"/>
-      <c r="AH67" s="17"/>
-      <c r="AI67" s="17"/>
-      <c r="AJ67" s="17"/>
-      <c r="AK67" s="17"/>
-      <c r="AL67" s="17"/>
-      <c r="AM67" s="17"/>
-      <c r="AN67" s="17"/>
-      <c r="AO67" s="17"/>
-      <c r="AP67" s="17"/>
-      <c r="AQ67" s="17"/>
-      <c r="AR67" s="25"/>
+    <row r="67" spans="1:44" ht="15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="44"/>
+      <c r="AD67" s="44"/>
+      <c r="AE67" s="44"/>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="44"/>
+      <c r="AH67" s="44"/>
+      <c r="AI67" s="28"/>
+      <c r="AJ67" s="28"/>
+      <c r="AK67" s="28"/>
+      <c r="AL67" s="28"/>
+      <c r="AM67" s="28"/>
+      <c r="AN67" s="28"/>
+      <c r="AO67" s="28"/>
+      <c r="AP67" s="28"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="23"/>
+    </row>
+    <row r="68" spans="1:44" ht="15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="44"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="44"/>
+      <c r="AF68" s="44"/>
+      <c r="AG68" s="44"/>
+      <c r="AH68" s="44"/>
+      <c r="AI68" s="28"/>
+      <c r="AJ68" s="28"/>
+      <c r="AK68" s="28"/>
+      <c r="AL68" s="28"/>
+      <c r="AM68" s="28"/>
+      <c r="AN68" s="28"/>
+      <c r="AO68" s="28"/>
+      <c r="AP68" s="28"/>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="23"/>
+    </row>
+    <row r="69" spans="1:44" ht="15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="52"/>
+      <c r="AD69" s="52"/>
+      <c r="AE69" s="52"/>
+      <c r="AF69" s="52"/>
+      <c r="AG69" s="28"/>
+      <c r="AH69" s="28"/>
+      <c r="AI69" s="28"/>
+      <c r="AJ69" s="28"/>
+      <c r="AK69" s="28"/>
+      <c r="AL69" s="28"/>
+      <c r="AM69" s="28"/>
+      <c r="AN69" s="28"/>
+      <c r="AO69" s="28"/>
+      <c r="AP69" s="28"/>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="23"/>
+    </row>
+    <row r="70" spans="1:44" ht="15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="28"/>
+      <c r="AH70" s="28"/>
+      <c r="AI70" s="28"/>
+      <c r="AJ70" s="28"/>
+      <c r="AK70" s="28"/>
+      <c r="AL70" s="28"/>
+      <c r="AM70" s="28"/>
+      <c r="AN70" s="28"/>
+      <c r="AO70" s="28"/>
+      <c r="AP70" s="28"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="23"/>
+    </row>
+    <row r="71" spans="1:44">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="23"/>
+    </row>
+    <row r="72" spans="1:44">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="17"/>
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="17"/>
+      <c r="AP72" s="17"/>
+      <c r="AQ72" s="17"/>
+      <c r="AR72" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AM39:AO40"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="L43:O44"/>
+    <mergeCell ref="P43:T44"/>
+    <mergeCell ref="U43:Y44"/>
+    <mergeCell ref="Z43:AD44"/>
+    <mergeCell ref="AE43:AH44"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="H39:K40"/>
+    <mergeCell ref="L39:O40"/>
+    <mergeCell ref="P39:S40"/>
+    <mergeCell ref="T39:W40"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
@@ -17905,18 +18202,6 @@
     <mergeCell ref="T1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="H39:K40"/>
-    <mergeCell ref="L39:O40"/>
-    <mergeCell ref="P39:S40"/>
-    <mergeCell ref="T39:W40"/>
-    <mergeCell ref="AM39:AO40"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="L43:O44"/>
-    <mergeCell ref="P43:T44"/>
-    <mergeCell ref="U43:Y44"/>
-    <mergeCell ref="Z43:AD44"/>
-    <mergeCell ref="AE43:AH44"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape"/>
@@ -17934,183 +18219,183 @@
   </sheetPr>
   <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="3"/>
-    <col min="2" max="3" width="3.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="3.375" style="3"/>
+    <col min="1" max="1" width="3.42578125" style="3"/>
+    <col min="2" max="3" width="3.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="3.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="176" t="s">
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176" t="s">
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="165" t="s">
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="166" t="s">
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="165" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="167"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="126"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="133" t="str">
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="156" t="str">
         <f>T2</f>
         <v>Đọc tên</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="175" t="str">
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="172" t="str">
         <f>Cover!C62</f>
         <v>UC_002</v>
       </c>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175" t="str">
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172" t="str">
         <f>Cover!H62</f>
         <v>Đọc tên</v>
       </c>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="133" t="s">
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="131">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="140"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="132"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="142"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="133"/>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="134"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -19610,111 +19895,111 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="3"/>
-    <col min="2" max="3" width="3.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="3.375" style="3"/>
+    <col min="1" max="1" width="3.42578125" style="3"/>
+    <col min="2" max="3" width="3.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="3.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="176" t="s">
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176" t="s">
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="165" t="s">
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="166" t="s">
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="165" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="167"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="126"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="158"/>
       <c r="AK2" s="177"/>
       <c r="AL2" s="177"/>
       <c r="AM2" s="177"/>
@@ -19725,42 +20010,42 @@
       <c r="AR2" s="178"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
       <c r="AK3" s="179"/>
       <c r="AL3" s="179"/>
       <c r="AM3" s="179"/>
@@ -23694,7 +23979,7 @@
       <c r="AQ88" s="5"/>
       <c r="AR88" s="5"/>
     </row>
-    <row r="89" spans="1:44" ht="14.25">
+    <row r="89" spans="1:44" ht="15">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -23740,7 +24025,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="1:44" ht="14.25">
+    <row r="90" spans="1:44" ht="15">
       <c r="A90" s="4"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>

--- a/doc/requirement/RFID_UseCase_v1.0.xlsx
+++ b/doc/requirement/RFID_UseCase_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeHistory" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">ChangeHistory!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Cover!$A$1:$AP$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Đăng kí thẻ'!$A$1:$AR$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Gọi tên'!$A$1:$AR$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Gọi tên'!$A$1:$AR$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Template!$A$1:$AR$92</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Cover!$1:4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Đăng kí thẻ'!$1:4</definedName>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>Project Name</t>
   </si>
@@ -431,6 +431,12 @@
   <si>
     <t>Đặc tả UC_2</t>
   </si>
+  <si>
+    <t>Màn hình quét thẻ:</t>
+  </si>
+  <si>
+    <t>Màn hình nhận thông tin khi gọi tên:</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +465,7 @@
     <numFmt numFmtId="183" formatCode="\¥#,##0;[Red]\-\¥#,##0"/>
     <numFmt numFmtId="184" formatCode="&quot;€&quot;#,##0;[Red]\-&quot;€&quot;#,##0"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +852,14 @@
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="32">
@@ -5166,7 +5180,7 @@
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5355,75 +5369,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1882" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="3633" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5469,6 +5414,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5499,19 +5456,76 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5526,6 +5540,7 @@
     <xf numFmtId="174" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="64" fillId="2" borderId="0" xfId="3633" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3719">
     <cellStyle name="??" xfId="392"/>
@@ -9551,13 +9566,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>213826</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>126254</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9608,13 +9623,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>58316</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>5975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>38878</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9659,6 +9674,116 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>77051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0D4129-BF5C-4201-A7F3-FA27EBBB7ADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="211666" y="5340705"/>
+          <a:ext cx="9842501" cy="1753096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>167727</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F120C27-1FA5-41A5-B155-E8A673118B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="222250" y="7556499"/>
+          <a:ext cx="9703310" cy="3759642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10282,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV92"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE86" sqref="AE86"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC74" sqref="AC74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
@@ -10291,7 +10416,7 @@
     <col min="1" max="7" width="3.140625" style="1"/>
     <col min="8" max="17" width="2.5703125" style="1" customWidth="1"/>
     <col min="18" max="28" width="3.140625" style="1"/>
-    <col min="29" max="29" width="22.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="24.5703125" style="1" customWidth="1"/>
     <col min="30" max="30" width="11" style="1" customWidth="1"/>
     <col min="31" max="31" width="13.5703125" style="1" customWidth="1"/>
     <col min="32" max="41" width="3.140625" style="1"/>
@@ -10300,156 +10425,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="124" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="124" t="s">
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="125" t="s">
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="124" t="s">
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="167"/>
+      <c r="AM1" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="126"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166"/>
+      <c r="AP1" s="167"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="163" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="156" t="s">
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="131">
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="139">
         <f>DATE(2017,1,30)</f>
         <v>42765</v>
       </c>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="131">
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="139">
         <f>DATE(2017,2,2)</f>
         <v>42768</v>
       </c>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="132"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="140"/>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="133"/>
-      <c r="AJ3" s="133"/>
-      <c r="AK3" s="133"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="133"/>
-      <c r="AN3" s="133"/>
-      <c r="AO3" s="133"/>
-      <c r="AP3" s="134"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="141"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="141"/>
+      <c r="AN3" s="141"/>
+      <c r="AO3" s="141"/>
+      <c r="AP3" s="142"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="54"/>
@@ -10587,181 +10712,181 @@
     </row>
     <row r="7" spans="1:42" ht="12.75" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170"/>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170"/>
-      <c r="AJ7" s="170"/>
-      <c r="AK7" s="170"/>
-      <c r="AL7" s="170"/>
-      <c r="AM7" s="170"/>
-      <c r="AN7" s="170"/>
-      <c r="AO7" s="170"/>
-      <c r="AP7" s="171"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="151"/>
+      <c r="AC7" s="151"/>
+      <c r="AD7" s="151"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="151"/>
+      <c r="AG7" s="151"/>
+      <c r="AH7" s="151"/>
+      <c r="AI7" s="151"/>
+      <c r="AJ7" s="151"/>
+      <c r="AK7" s="151"/>
+      <c r="AL7" s="151"/>
+      <c r="AM7" s="151"/>
+      <c r="AN7" s="151"/>
+      <c r="AO7" s="151"/>
+      <c r="AP7" s="152"/>
     </row>
     <row r="8" spans="1:42" ht="12.75" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="170"/>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="170"/>
-      <c r="AE8" s="170"/>
-      <c r="AF8" s="170"/>
-      <c r="AG8" s="170"/>
-      <c r="AH8" s="170"/>
-      <c r="AI8" s="170"/>
-      <c r="AJ8" s="170"/>
-      <c r="AK8" s="170"/>
-      <c r="AL8" s="170"/>
-      <c r="AM8" s="170"/>
-      <c r="AN8" s="170"/>
-      <c r="AO8" s="170"/>
-      <c r="AP8" s="171"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="151"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="151"/>
+      <c r="AK8" s="151"/>
+      <c r="AL8" s="151"/>
+      <c r="AM8" s="151"/>
+      <c r="AN8" s="151"/>
+      <c r="AO8" s="151"/>
+      <c r="AP8" s="152"/>
     </row>
     <row r="9" spans="1:42" ht="12.75" customHeight="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="170"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="170"/>
-      <c r="AJ9" s="170"/>
-      <c r="AK9" s="170"/>
-      <c r="AL9" s="170"/>
-      <c r="AM9" s="170"/>
-      <c r="AN9" s="170"/>
-      <c r="AO9" s="170"/>
-      <c r="AP9" s="171"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="151"/>
+      <c r="AC9" s="151"/>
+      <c r="AD9" s="151"/>
+      <c r="AE9" s="151"/>
+      <c r="AF9" s="151"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="151"/>
+      <c r="AK9" s="151"/>
+      <c r="AL9" s="151"/>
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="151"/>
+      <c r="AP9" s="152"/>
     </row>
     <row r="10" spans="1:42" ht="12.75" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="170"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="170"/>
-      <c r="AI10" s="170"/>
-      <c r="AJ10" s="170"/>
-      <c r="AK10" s="170"/>
-      <c r="AL10" s="170"/>
-      <c r="AM10" s="170"/>
-      <c r="AN10" s="170"/>
-      <c r="AO10" s="170"/>
-      <c r="AP10" s="171"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="151"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="151"/>
+      <c r="AE10" s="151"/>
+      <c r="AF10" s="151"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="151"/>
+      <c r="AJ10" s="151"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="151"/>
+      <c r="AM10" s="151"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="152"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="54"/>
@@ -12583,46 +12708,46 @@
       <c r="C52" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="127" t="s">
+      <c r="D52" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127" t="s">
+      <c r="E52" s="168"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="127"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="127"/>
-      <c r="N52" s="127"/>
-      <c r="O52" s="127"/>
-      <c r="P52" s="127"/>
-      <c r="Q52" s="127"/>
-      <c r="R52" s="127"/>
-      <c r="S52" s="127"/>
-      <c r="T52" s="127"/>
-      <c r="U52" s="127"/>
-      <c r="V52" s="127"/>
-      <c r="W52" s="128" t="s">
+      <c r="I52" s="168"/>
+      <c r="J52" s="168"/>
+      <c r="K52" s="168"/>
+      <c r="L52" s="168"/>
+      <c r="M52" s="168"/>
+      <c r="N52" s="168"/>
+      <c r="O52" s="168"/>
+      <c r="P52" s="168"/>
+      <c r="Q52" s="168"/>
+      <c r="R52" s="168"/>
+      <c r="S52" s="168"/>
+      <c r="T52" s="168"/>
+      <c r="U52" s="168"/>
+      <c r="V52" s="168"/>
+      <c r="W52" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="X52" s="129"/>
-      <c r="Y52" s="129"/>
-      <c r="Z52" s="129"/>
-      <c r="AA52" s="129"/>
-      <c r="AB52" s="129"/>
-      <c r="AC52" s="129"/>
-      <c r="AD52" s="129"/>
-      <c r="AE52" s="129"/>
-      <c r="AF52" s="129"/>
-      <c r="AG52" s="129"/>
-      <c r="AH52" s="129"/>
-      <c r="AI52" s="129"/>
-      <c r="AJ52" s="129"/>
-      <c r="AK52" s="130"/>
+      <c r="X52" s="170"/>
+      <c r="Y52" s="170"/>
+      <c r="Z52" s="170"/>
+      <c r="AA52" s="170"/>
+      <c r="AB52" s="170"/>
+      <c r="AC52" s="170"/>
+      <c r="AD52" s="170"/>
+      <c r="AE52" s="170"/>
+      <c r="AF52" s="170"/>
+      <c r="AG52" s="170"/>
+      <c r="AH52" s="170"/>
+      <c r="AI52" s="170"/>
+      <c r="AJ52" s="170"/>
+      <c r="AK52" s="171"/>
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
@@ -12635,46 +12760,46 @@
       <c r="C53" s="80">
         <v>1</v>
       </c>
-      <c r="D53" s="135" t="s">
+      <c r="D53" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="136" t="s">
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="137"/>
-      <c r="M53" s="137"/>
-      <c r="N53" s="137"/>
-      <c r="O53" s="137"/>
-      <c r="P53" s="137"/>
-      <c r="Q53" s="137"/>
-      <c r="R53" s="137"/>
-      <c r="S53" s="137"/>
-      <c r="T53" s="137"/>
-      <c r="U53" s="137"/>
-      <c r="V53" s="138"/>
-      <c r="W53" s="139" t="s">
+      <c r="I53" s="163"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="163"/>
+      <c r="L53" s="163"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="163"/>
+      <c r="P53" s="163"/>
+      <c r="Q53" s="163"/>
+      <c r="R53" s="163"/>
+      <c r="S53" s="163"/>
+      <c r="T53" s="163"/>
+      <c r="U53" s="163"/>
+      <c r="V53" s="164"/>
+      <c r="W53" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="X53" s="140"/>
-      <c r="Y53" s="140"/>
-      <c r="Z53" s="140"/>
-      <c r="AA53" s="140"/>
-      <c r="AB53" s="140"/>
-      <c r="AC53" s="140"/>
-      <c r="AD53" s="140"/>
-      <c r="AE53" s="140"/>
-      <c r="AF53" s="140"/>
-      <c r="AG53" s="140"/>
-      <c r="AH53" s="140"/>
-      <c r="AI53" s="140"/>
-      <c r="AJ53" s="140"/>
-      <c r="AK53" s="141"/>
+      <c r="X53" s="159"/>
+      <c r="Y53" s="159"/>
+      <c r="Z53" s="159"/>
+      <c r="AA53" s="159"/>
+      <c r="AB53" s="159"/>
+      <c r="AC53" s="159"/>
+      <c r="AD53" s="159"/>
+      <c r="AE53" s="159"/>
+      <c r="AF53" s="159"/>
+      <c r="AG53" s="159"/>
+      <c r="AH53" s="159"/>
+      <c r="AI53" s="159"/>
+      <c r="AJ53" s="159"/>
+      <c r="AK53" s="160"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
@@ -12687,46 +12812,46 @@
       <c r="C54" s="80">
         <v>2</v>
       </c>
-      <c r="D54" s="142" t="s">
+      <c r="D54" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="136" t="s">
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="137"/>
-      <c r="L54" s="137"/>
-      <c r="M54" s="137"/>
-      <c r="N54" s="137"/>
-      <c r="O54" s="137"/>
-      <c r="P54" s="137"/>
-      <c r="Q54" s="137"/>
-      <c r="R54" s="137"/>
-      <c r="S54" s="137"/>
-      <c r="T54" s="137"/>
-      <c r="U54" s="137"/>
-      <c r="V54" s="138"/>
-      <c r="W54" s="139" t="s">
+      <c r="I54" s="163"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="163"/>
+      <c r="L54" s="163"/>
+      <c r="M54" s="163"/>
+      <c r="N54" s="163"/>
+      <c r="O54" s="163"/>
+      <c r="P54" s="163"/>
+      <c r="Q54" s="163"/>
+      <c r="R54" s="163"/>
+      <c r="S54" s="163"/>
+      <c r="T54" s="163"/>
+      <c r="U54" s="163"/>
+      <c r="V54" s="164"/>
+      <c r="W54" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="X54" s="140"/>
-      <c r="Y54" s="140"/>
-      <c r="Z54" s="140"/>
-      <c r="AA54" s="140"/>
-      <c r="AB54" s="140"/>
-      <c r="AC54" s="140"/>
-      <c r="AD54" s="140"/>
-      <c r="AE54" s="140"/>
-      <c r="AF54" s="140"/>
-      <c r="AG54" s="140"/>
-      <c r="AH54" s="140"/>
-      <c r="AI54" s="140"/>
-      <c r="AJ54" s="140"/>
-      <c r="AK54" s="141"/>
+      <c r="X54" s="159"/>
+      <c r="Y54" s="159"/>
+      <c r="Z54" s="159"/>
+      <c r="AA54" s="159"/>
+      <c r="AB54" s="159"/>
+      <c r="AC54" s="159"/>
+      <c r="AD54" s="159"/>
+      <c r="AE54" s="159"/>
+      <c r="AF54" s="159"/>
+      <c r="AG54" s="159"/>
+      <c r="AH54" s="159"/>
+      <c r="AI54" s="159"/>
+      <c r="AJ54" s="159"/>
+      <c r="AK54" s="160"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
       <c r="AN54" s="5"/>
@@ -12739,46 +12864,46 @@
       <c r="C55" s="80">
         <v>3</v>
       </c>
-      <c r="D55" s="142" t="s">
+      <c r="D55" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="136" t="s">
+      <c r="E55" s="157"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="137"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="137"/>
-      <c r="L55" s="137"/>
-      <c r="M55" s="137"/>
-      <c r="N55" s="137"/>
-      <c r="O55" s="137"/>
-      <c r="P55" s="137"/>
-      <c r="Q55" s="137"/>
-      <c r="R55" s="137"/>
-      <c r="S55" s="137"/>
-      <c r="T55" s="137"/>
-      <c r="U55" s="137"/>
-      <c r="V55" s="138"/>
-      <c r="W55" s="139" t="s">
+      <c r="I55" s="163"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="163"/>
+      <c r="L55" s="163"/>
+      <c r="M55" s="163"/>
+      <c r="N55" s="163"/>
+      <c r="O55" s="163"/>
+      <c r="P55" s="163"/>
+      <c r="Q55" s="163"/>
+      <c r="R55" s="163"/>
+      <c r="S55" s="163"/>
+      <c r="T55" s="163"/>
+      <c r="U55" s="163"/>
+      <c r="V55" s="164"/>
+      <c r="W55" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="X55" s="140"/>
-      <c r="Y55" s="140"/>
-      <c r="Z55" s="140"/>
-      <c r="AA55" s="140"/>
-      <c r="AB55" s="140"/>
-      <c r="AC55" s="140"/>
-      <c r="AD55" s="140"/>
-      <c r="AE55" s="140"/>
-      <c r="AF55" s="140"/>
-      <c r="AG55" s="140"/>
-      <c r="AH55" s="140"/>
-      <c r="AI55" s="140"/>
-      <c r="AJ55" s="140"/>
-      <c r="AK55" s="141"/>
+      <c r="X55" s="159"/>
+      <c r="Y55" s="159"/>
+      <c r="Z55" s="159"/>
+      <c r="AA55" s="159"/>
+      <c r="AB55" s="159"/>
+      <c r="AC55" s="159"/>
+      <c r="AD55" s="159"/>
+      <c r="AE55" s="159"/>
+      <c r="AF55" s="159"/>
+      <c r="AG55" s="159"/>
+      <c r="AH55" s="159"/>
+      <c r="AI55" s="159"/>
+      <c r="AJ55" s="159"/>
+      <c r="AK55" s="160"/>
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -12791,46 +12916,46 @@
       <c r="C56" s="80">
         <v>4</v>
       </c>
-      <c r="D56" s="142" t="s">
+      <c r="D56" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="136" t="s">
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="137"/>
-      <c r="L56" s="137"/>
-      <c r="M56" s="137"/>
-      <c r="N56" s="137"/>
-      <c r="O56" s="137"/>
-      <c r="P56" s="137"/>
-      <c r="Q56" s="137"/>
-      <c r="R56" s="137"/>
-      <c r="S56" s="137"/>
-      <c r="T56" s="137"/>
-      <c r="U56" s="137"/>
-      <c r="V56" s="138"/>
-      <c r="W56" s="139" t="s">
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="163"/>
+      <c r="L56" s="163"/>
+      <c r="M56" s="163"/>
+      <c r="N56" s="163"/>
+      <c r="O56" s="163"/>
+      <c r="P56" s="163"/>
+      <c r="Q56" s="163"/>
+      <c r="R56" s="163"/>
+      <c r="S56" s="163"/>
+      <c r="T56" s="163"/>
+      <c r="U56" s="163"/>
+      <c r="V56" s="164"/>
+      <c r="W56" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="X56" s="140"/>
-      <c r="Y56" s="140"/>
-      <c r="Z56" s="140"/>
-      <c r="AA56" s="140"/>
-      <c r="AB56" s="140"/>
-      <c r="AC56" s="140"/>
-      <c r="AD56" s="140"/>
-      <c r="AE56" s="140"/>
-      <c r="AF56" s="140"/>
-      <c r="AG56" s="140"/>
-      <c r="AH56" s="140"/>
-      <c r="AI56" s="140"/>
-      <c r="AJ56" s="140"/>
-      <c r="AK56" s="141"/>
+      <c r="X56" s="159"/>
+      <c r="Y56" s="159"/>
+      <c r="Z56" s="159"/>
+      <c r="AA56" s="159"/>
+      <c r="AB56" s="159"/>
+      <c r="AC56" s="159"/>
+      <c r="AD56" s="159"/>
+      <c r="AE56" s="159"/>
+      <c r="AF56" s="159"/>
+      <c r="AG56" s="159"/>
+      <c r="AH56" s="159"/>
+      <c r="AI56" s="159"/>
+      <c r="AJ56" s="159"/>
+      <c r="AK56" s="160"/>
       <c r="AL56" s="5"/>
       <c r="AM56" s="5"/>
       <c r="AN56" s="5"/>
@@ -12843,46 +12968,46 @@
       <c r="C57" s="80">
         <v>5</v>
       </c>
-      <c r="D57" s="142" t="s">
+      <c r="D57" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="139" t="s">
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="140"/>
-      <c r="M57" s="140"/>
-      <c r="N57" s="140"/>
-      <c r="O57" s="140"/>
-      <c r="P57" s="140"/>
-      <c r="Q57" s="140"/>
-      <c r="R57" s="140"/>
-      <c r="S57" s="140"/>
-      <c r="T57" s="140"/>
-      <c r="U57" s="140"/>
-      <c r="V57" s="141"/>
-      <c r="W57" s="139" t="s">
+      <c r="I57" s="159"/>
+      <c r="J57" s="159"/>
+      <c r="K57" s="159"/>
+      <c r="L57" s="159"/>
+      <c r="M57" s="159"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="159"/>
+      <c r="P57" s="159"/>
+      <c r="Q57" s="159"/>
+      <c r="R57" s="159"/>
+      <c r="S57" s="159"/>
+      <c r="T57" s="159"/>
+      <c r="U57" s="159"/>
+      <c r="V57" s="160"/>
+      <c r="W57" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="X57" s="140"/>
-      <c r="Y57" s="140"/>
-      <c r="Z57" s="140"/>
-      <c r="AA57" s="140"/>
-      <c r="AB57" s="140"/>
-      <c r="AC57" s="140"/>
-      <c r="AD57" s="140"/>
-      <c r="AE57" s="140"/>
-      <c r="AF57" s="140"/>
-      <c r="AG57" s="140"/>
-      <c r="AH57" s="140"/>
-      <c r="AI57" s="140"/>
-      <c r="AJ57" s="140"/>
-      <c r="AK57" s="141"/>
+      <c r="X57" s="159"/>
+      <c r="Y57" s="159"/>
+      <c r="Z57" s="159"/>
+      <c r="AA57" s="159"/>
+      <c r="AB57" s="159"/>
+      <c r="AC57" s="159"/>
+      <c r="AD57" s="159"/>
+      <c r="AE57" s="159"/>
+      <c r="AF57" s="159"/>
+      <c r="AG57" s="159"/>
+      <c r="AH57" s="159"/>
+      <c r="AI57" s="159"/>
+      <c r="AJ57" s="159"/>
+      <c r="AK57" s="160"/>
       <c r="AL57" s="5"/>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
@@ -12984,45 +13109,45 @@
       <c r="B60" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="143" t="s">
+      <c r="C60" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="143"/>
-      <c r="E60" s="143"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143" t="s">
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="143"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="143" t="s">
+      <c r="I60" s="161"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="161"/>
+      <c r="L60" s="161"/>
+      <c r="M60" s="161"/>
+      <c r="N60" s="161"/>
+      <c r="O60" s="161"/>
+      <c r="P60" s="161"/>
+      <c r="Q60" s="161"/>
+      <c r="R60" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="S60" s="143"/>
-      <c r="T60" s="143"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="143"/>
-      <c r="X60" s="143"/>
-      <c r="Y60" s="143"/>
-      <c r="Z60" s="143"/>
-      <c r="AA60" s="143"/>
-      <c r="AB60" s="143"/>
-      <c r="AC60" s="143"/>
-      <c r="AD60" s="143"/>
-      <c r="AE60" s="143"/>
-      <c r="AF60" s="143"/>
-      <c r="AG60" s="143"/>
-      <c r="AH60" s="143"/>
-      <c r="AI60" s="143"/>
+      <c r="S60" s="161"/>
+      <c r="T60" s="161"/>
+      <c r="U60" s="161"/>
+      <c r="V60" s="161"/>
+      <c r="W60" s="161"/>
+      <c r="X60" s="161"/>
+      <c r="Y60" s="161"/>
+      <c r="Z60" s="161"/>
+      <c r="AA60" s="161"/>
+      <c r="AB60" s="161"/>
+      <c r="AC60" s="161"/>
+      <c r="AD60" s="161"/>
+      <c r="AE60" s="161"/>
+      <c r="AF60" s="161"/>
+      <c r="AG60" s="161"/>
+      <c r="AH60" s="161"/>
+      <c r="AI60" s="161"/>
       <c r="AJ60" s="64"/>
       <c r="AK60" s="64"/>
       <c r="AL60" s="64"/>
@@ -13036,13 +13161,13 @@
       <c r="B61" s="83">
         <v>1</v>
       </c>
-      <c r="C61" s="147" t="s">
+      <c r="C61" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="149"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="126"/>
       <c r="H61" s="84" t="s">
         <v>47</v>
       </c>
@@ -13055,26 +13180,26 @@
       <c r="O61" s="88"/>
       <c r="P61" s="88"/>
       <c r="Q61" s="88"/>
-      <c r="R61" s="144" t="s">
+      <c r="R61" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="S61" s="145"/>
-      <c r="T61" s="145"/>
-      <c r="U61" s="145"/>
-      <c r="V61" s="145"/>
-      <c r="W61" s="145"/>
-      <c r="X61" s="145"/>
-      <c r="Y61" s="145"/>
-      <c r="Z61" s="145"/>
-      <c r="AA61" s="145"/>
-      <c r="AB61" s="145"/>
-      <c r="AC61" s="145"/>
-      <c r="AD61" s="145"/>
-      <c r="AE61" s="145"/>
-      <c r="AF61" s="145"/>
-      <c r="AG61" s="145"/>
-      <c r="AH61" s="145"/>
-      <c r="AI61" s="146"/>
+      <c r="S61" s="154"/>
+      <c r="T61" s="154"/>
+      <c r="U61" s="154"/>
+      <c r="V61" s="154"/>
+      <c r="W61" s="154"/>
+      <c r="X61" s="154"/>
+      <c r="Y61" s="154"/>
+      <c r="Z61" s="154"/>
+      <c r="AA61" s="154"/>
+      <c r="AB61" s="154"/>
+      <c r="AC61" s="154"/>
+      <c r="AD61" s="154"/>
+      <c r="AE61" s="154"/>
+      <c r="AF61" s="154"/>
+      <c r="AG61" s="154"/>
+      <c r="AH61" s="154"/>
+      <c r="AI61" s="155"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
       <c r="AL61" s="5"/>
@@ -13088,13 +13213,13 @@
       <c r="B62" s="86">
         <v>2</v>
       </c>
-      <c r="C62" s="147" t="s">
+      <c r="C62" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="149"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="126"/>
       <c r="H62" s="87" t="s">
         <v>50</v>
       </c>
@@ -13107,26 +13232,26 @@
       <c r="O62" s="90"/>
       <c r="P62" s="90"/>
       <c r="Q62" s="90"/>
-      <c r="R62" s="150" t="s">
+      <c r="R62" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="S62" s="151"/>
-      <c r="T62" s="151"/>
-      <c r="U62" s="151"/>
-      <c r="V62" s="151"/>
-      <c r="W62" s="151"/>
-      <c r="X62" s="151"/>
-      <c r="Y62" s="151"/>
-      <c r="Z62" s="151"/>
-      <c r="AA62" s="151"/>
-      <c r="AB62" s="151"/>
-      <c r="AC62" s="151"/>
-      <c r="AD62" s="151"/>
-      <c r="AE62" s="151"/>
-      <c r="AF62" s="151"/>
-      <c r="AG62" s="151"/>
-      <c r="AH62" s="151"/>
-      <c r="AI62" s="152"/>
+      <c r="S62" s="128"/>
+      <c r="T62" s="128"/>
+      <c r="U62" s="128"/>
+      <c r="V62" s="128"/>
+      <c r="W62" s="128"/>
+      <c r="X62" s="128"/>
+      <c r="Y62" s="128"/>
+      <c r="Z62" s="128"/>
+      <c r="AA62" s="128"/>
+      <c r="AB62" s="128"/>
+      <c r="AC62" s="128"/>
+      <c r="AD62" s="128"/>
+      <c r="AE62" s="128"/>
+      <c r="AF62" s="128"/>
+      <c r="AG62" s="128"/>
+      <c r="AH62" s="128"/>
+      <c r="AI62" s="129"/>
       <c r="AJ62" s="55"/>
       <c r="AK62" s="55"/>
       <c r="AL62" s="55"/>
@@ -13140,13 +13265,13 @@
       <c r="B63" s="86">
         <v>3</v>
       </c>
-      <c r="C63" s="147" t="s">
+      <c r="C63" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="149"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="126"/>
       <c r="H63" s="87" t="s">
         <v>53</v>
       </c>
@@ -13159,26 +13284,26 @@
       <c r="O63" s="90"/>
       <c r="P63" s="90"/>
       <c r="Q63" s="90"/>
-      <c r="R63" s="150" t="s">
+      <c r="R63" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="151"/>
-      <c r="T63" s="151"/>
-      <c r="U63" s="151"/>
-      <c r="V63" s="151"/>
-      <c r="W63" s="151"/>
-      <c r="X63" s="151"/>
-      <c r="Y63" s="151"/>
-      <c r="Z63" s="151"/>
-      <c r="AA63" s="151"/>
-      <c r="AB63" s="151"/>
-      <c r="AC63" s="151"/>
-      <c r="AD63" s="151"/>
-      <c r="AE63" s="151"/>
-      <c r="AF63" s="151"/>
-      <c r="AG63" s="151"/>
-      <c r="AH63" s="151"/>
-      <c r="AI63" s="152"/>
+      <c r="S63" s="128"/>
+      <c r="T63" s="128"/>
+      <c r="U63" s="128"/>
+      <c r="V63" s="128"/>
+      <c r="W63" s="128"/>
+      <c r="X63" s="128"/>
+      <c r="Y63" s="128"/>
+      <c r="Z63" s="128"/>
+      <c r="AA63" s="128"/>
+      <c r="AB63" s="128"/>
+      <c r="AC63" s="128"/>
+      <c r="AD63" s="128"/>
+      <c r="AE63" s="128"/>
+      <c r="AF63" s="128"/>
+      <c r="AG63" s="128"/>
+      <c r="AH63" s="128"/>
+      <c r="AI63" s="129"/>
       <c r="AJ63" s="55"/>
       <c r="AK63" s="55"/>
       <c r="AL63" s="55"/>
@@ -13198,13 +13323,13 @@
       <c r="B64" s="86">
         <v>4</v>
       </c>
-      <c r="C64" s="147" t="s">
+      <c r="C64" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="149"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="126"/>
       <c r="H64" s="87" t="s">
         <v>56</v>
       </c>
@@ -13217,26 +13342,26 @@
       <c r="O64" s="90"/>
       <c r="P64" s="90"/>
       <c r="Q64" s="90"/>
-      <c r="R64" s="150" t="s">
+      <c r="R64" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="S64" s="151"/>
-      <c r="T64" s="151"/>
-      <c r="U64" s="151"/>
-      <c r="V64" s="151"/>
-      <c r="W64" s="151"/>
-      <c r="X64" s="151"/>
-      <c r="Y64" s="151"/>
-      <c r="Z64" s="151"/>
-      <c r="AA64" s="151"/>
-      <c r="AB64" s="151"/>
-      <c r="AC64" s="151"/>
-      <c r="AD64" s="151"/>
-      <c r="AE64" s="151"/>
-      <c r="AF64" s="151"/>
-      <c r="AG64" s="151"/>
-      <c r="AH64" s="151"/>
-      <c r="AI64" s="152"/>
+      <c r="S64" s="128"/>
+      <c r="T64" s="128"/>
+      <c r="U64" s="128"/>
+      <c r="V64" s="128"/>
+      <c r="W64" s="128"/>
+      <c r="X64" s="128"/>
+      <c r="Y64" s="128"/>
+      <c r="Z64" s="128"/>
+      <c r="AA64" s="128"/>
+      <c r="AB64" s="128"/>
+      <c r="AC64" s="128"/>
+      <c r="AD64" s="128"/>
+      <c r="AE64" s="128"/>
+      <c r="AF64" s="128"/>
+      <c r="AG64" s="128"/>
+      <c r="AH64" s="128"/>
+      <c r="AI64" s="129"/>
       <c r="AJ64" s="55"/>
       <c r="AK64" s="55"/>
       <c r="AL64" s="55"/>
@@ -13256,13 +13381,13 @@
       <c r="B65" s="86">
         <v>5</v>
       </c>
-      <c r="C65" s="147" t="s">
+      <c r="C65" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="149"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="126"/>
       <c r="H65" s="87" t="s">
         <v>59</v>
       </c>
@@ -13275,26 +13400,26 @@
       <c r="O65" s="90"/>
       <c r="P65" s="90"/>
       <c r="Q65" s="90"/>
-      <c r="R65" s="150" t="s">
+      <c r="R65" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="S65" s="151"/>
-      <c r="T65" s="151"/>
-      <c r="U65" s="151"/>
-      <c r="V65" s="151"/>
-      <c r="W65" s="151"/>
-      <c r="X65" s="151"/>
-      <c r="Y65" s="151"/>
-      <c r="Z65" s="151"/>
-      <c r="AA65" s="151"/>
-      <c r="AB65" s="151"/>
-      <c r="AC65" s="151"/>
-      <c r="AD65" s="151"/>
-      <c r="AE65" s="151"/>
-      <c r="AF65" s="151"/>
-      <c r="AG65" s="151"/>
-      <c r="AH65" s="151"/>
-      <c r="AI65" s="152"/>
+      <c r="S65" s="128"/>
+      <c r="T65" s="128"/>
+      <c r="U65" s="128"/>
+      <c r="V65" s="128"/>
+      <c r="W65" s="128"/>
+      <c r="X65" s="128"/>
+      <c r="Y65" s="128"/>
+      <c r="Z65" s="128"/>
+      <c r="AA65" s="128"/>
+      <c r="AB65" s="128"/>
+      <c r="AC65" s="128"/>
+      <c r="AD65" s="128"/>
+      <c r="AE65" s="128"/>
+      <c r="AF65" s="128"/>
+      <c r="AG65" s="128"/>
+      <c r="AH65" s="128"/>
+      <c r="AI65" s="129"/>
       <c r="AJ65" s="55"/>
       <c r="AK65" s="55"/>
       <c r="AL65" s="55"/>
@@ -13314,13 +13439,13 @@
       <c r="B66" s="86">
         <v>6</v>
       </c>
-      <c r="C66" s="147" t="s">
+      <c r="C66" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="148"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="149"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="126"/>
       <c r="H66" s="87" t="s">
         <v>62</v>
       </c>
@@ -13333,26 +13458,26 @@
       <c r="O66" s="90"/>
       <c r="P66" s="90"/>
       <c r="Q66" s="90"/>
-      <c r="R66" s="150" t="s">
+      <c r="R66" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="S66" s="151"/>
-      <c r="T66" s="151"/>
-      <c r="U66" s="151"/>
-      <c r="V66" s="151"/>
-      <c r="W66" s="151"/>
-      <c r="X66" s="151"/>
-      <c r="Y66" s="151"/>
-      <c r="Z66" s="151"/>
-      <c r="AA66" s="151"/>
-      <c r="AB66" s="151"/>
-      <c r="AC66" s="151"/>
-      <c r="AD66" s="151"/>
-      <c r="AE66" s="151"/>
-      <c r="AF66" s="151"/>
-      <c r="AG66" s="151"/>
-      <c r="AH66" s="151"/>
-      <c r="AI66" s="152"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="128"/>
+      <c r="U66" s="128"/>
+      <c r="V66" s="128"/>
+      <c r="W66" s="128"/>
+      <c r="X66" s="128"/>
+      <c r="Y66" s="128"/>
+      <c r="Z66" s="128"/>
+      <c r="AA66" s="128"/>
+      <c r="AB66" s="128"/>
+      <c r="AC66" s="128"/>
+      <c r="AD66" s="128"/>
+      <c r="AE66" s="128"/>
+      <c r="AF66" s="128"/>
+      <c r="AG66" s="128"/>
+      <c r="AH66" s="128"/>
+      <c r="AI66" s="129"/>
       <c r="AJ66" s="55"/>
       <c r="AK66" s="55"/>
       <c r="AL66" s="55"/>
@@ -13372,11 +13497,11 @@
       <c r="B67" s="86">
         <v>7</v>
       </c>
-      <c r="C67" s="147"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="149"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="126"/>
       <c r="H67" s="87"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
@@ -13387,24 +13512,24 @@
       <c r="O67" s="90"/>
       <c r="P67" s="90"/>
       <c r="Q67" s="90"/>
-      <c r="R67" s="150"/>
-      <c r="S67" s="151"/>
-      <c r="T67" s="151"/>
-      <c r="U67" s="151"/>
-      <c r="V67" s="151"/>
-      <c r="W67" s="151"/>
-      <c r="X67" s="151"/>
-      <c r="Y67" s="151"/>
-      <c r="Z67" s="151"/>
-      <c r="AA67" s="151"/>
-      <c r="AB67" s="151"/>
-      <c r="AC67" s="151"/>
-      <c r="AD67" s="151"/>
-      <c r="AE67" s="151"/>
-      <c r="AF67" s="151"/>
-      <c r="AG67" s="151"/>
-      <c r="AH67" s="151"/>
-      <c r="AI67" s="152"/>
+      <c r="R67" s="127"/>
+      <c r="S67" s="128"/>
+      <c r="T67" s="128"/>
+      <c r="U67" s="128"/>
+      <c r="V67" s="128"/>
+      <c r="W67" s="128"/>
+      <c r="X67" s="128"/>
+      <c r="Y67" s="128"/>
+      <c r="Z67" s="128"/>
+      <c r="AA67" s="128"/>
+      <c r="AB67" s="128"/>
+      <c r="AC67" s="128"/>
+      <c r="AD67" s="128"/>
+      <c r="AE67" s="128"/>
+      <c r="AF67" s="128"/>
+      <c r="AG67" s="128"/>
+      <c r="AH67" s="128"/>
+      <c r="AI67" s="129"/>
       <c r="AJ67" s="55"/>
       <c r="AK67" s="55"/>
       <c r="AL67" s="55"/>
@@ -13424,11 +13549,11 @@
       <c r="B68" s="97">
         <v>8</v>
       </c>
-      <c r="C68" s="147"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="149"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="126"/>
       <c r="H68" s="98"/>
       <c r="I68" s="99"/>
       <c r="J68" s="99"/>
@@ -13439,24 +13564,24 @@
       <c r="O68" s="99"/>
       <c r="P68" s="99"/>
       <c r="Q68" s="99"/>
-      <c r="R68" s="153"/>
-      <c r="S68" s="154"/>
-      <c r="T68" s="154"/>
-      <c r="U68" s="154"/>
-      <c r="V68" s="154"/>
-      <c r="W68" s="154"/>
-      <c r="X68" s="154"/>
-      <c r="Y68" s="154"/>
-      <c r="Z68" s="154"/>
-      <c r="AA68" s="154"/>
-      <c r="AB68" s="154"/>
-      <c r="AC68" s="154"/>
-      <c r="AD68" s="154"/>
-      <c r="AE68" s="154"/>
-      <c r="AF68" s="154"/>
-      <c r="AG68" s="154"/>
-      <c r="AH68" s="154"/>
-      <c r="AI68" s="155"/>
+      <c r="R68" s="130"/>
+      <c r="S68" s="131"/>
+      <c r="T68" s="131"/>
+      <c r="U68" s="131"/>
+      <c r="V68" s="131"/>
+      <c r="W68" s="131"/>
+      <c r="X68" s="131"/>
+      <c r="Y68" s="131"/>
+      <c r="Z68" s="131"/>
+      <c r="AA68" s="131"/>
+      <c r="AB68" s="131"/>
+      <c r="AC68" s="131"/>
+      <c r="AD68" s="131"/>
+      <c r="AE68" s="131"/>
+      <c r="AF68" s="131"/>
+      <c r="AG68" s="131"/>
+      <c r="AH68" s="131"/>
+      <c r="AI68" s="132"/>
       <c r="AJ68" s="55"/>
       <c r="AK68" s="55"/>
       <c r="AL68" s="55"/>
@@ -14704,6 +14829,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:V52"/>
+    <mergeCell ref="W52:AK52"/>
+    <mergeCell ref="AM2:AP3"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:V53"/>
+    <mergeCell ref="W53:AK53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:V54"/>
+    <mergeCell ref="W54:AK54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:V55"/>
+    <mergeCell ref="W55:AK55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:V56"/>
+    <mergeCell ref="W56:AK56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:V57"/>
+    <mergeCell ref="W57:AK57"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="R60:AI60"/>
+    <mergeCell ref="R61:AI61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="R62:AI62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="R63:AI63"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="R67:AI67"/>
     <mergeCell ref="C68:G68"/>
@@ -14720,37 +14876,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="R66:AI66"/>
     <mergeCell ref="C61:G61"/>
-    <mergeCell ref="R61:AI61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="R62:AI62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="R63:AI63"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:V57"/>
-    <mergeCell ref="W57:AK57"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:Q60"/>
-    <mergeCell ref="R60:AI60"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:V55"/>
-    <mergeCell ref="W55:AK55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:V56"/>
-    <mergeCell ref="W56:AK56"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:V53"/>
-    <mergeCell ref="W53:AK53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:V54"/>
-    <mergeCell ref="W54:AK54"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:V52"/>
-    <mergeCell ref="W52:AK52"/>
-    <mergeCell ref="AM2:AP3"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
@@ -14771,7 +14896,7 @@
   </sheetPr>
   <dimension ref="A1:AR72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AX61" sqref="AX61"/>
     </sheetView>
   </sheetViews>
@@ -14784,173 +14909,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="124" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="173" t="s">
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173" t="s">
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="124" t="s">
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="125" t="s">
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166"/>
+      <c r="AJ1" s="167"/>
+      <c r="AK1" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="124" t="s">
+      <c r="AL1" s="166"/>
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="167"/>
+      <c r="AO1" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="126"/>
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="167"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="156" t="str">
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="133" t="str">
         <f>T2</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="172" t="str">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="175" t="str">
         <f>Cover!C61</f>
         <v>UC_001</v>
       </c>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172" t="str">
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175" t="str">
         <f>Cover!H61</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="156" t="s">
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="131">
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="139">
         <f>DATE(2016,2,3)</f>
         <v>42403</v>
       </c>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="131">
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="139">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AP2" s="131"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="132"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="140"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="161"/>
-      <c r="AK3" s="133"/>
-      <c r="AL3" s="133"/>
-      <c r="AM3" s="133"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="133"/>
-      <c r="AP3" s="133"/>
-      <c r="AQ3" s="133"/>
-      <c r="AR3" s="134"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="141"/>
+      <c r="AM3" s="141"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="141"/>
+      <c r="AP3" s="141"/>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="142"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -16651,9 +16776,9 @@
       <c r="AJ39" s="28"/>
       <c r="AK39" s="28"/>
       <c r="AL39" s="28"/>
-      <c r="AM39" s="175"/>
-      <c r="AN39" s="175"/>
-      <c r="AO39" s="175"/>
+      <c r="AM39" s="172"/>
+      <c r="AN39" s="172"/>
+      <c r="AO39" s="172"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="23"/>
@@ -16697,9 +16822,9 @@
       <c r="AJ40" s="28"/>
       <c r="AK40" s="28"/>
       <c r="AL40" s="28"/>
-      <c r="AM40" s="175"/>
-      <c r="AN40" s="175"/>
-      <c r="AO40" s="175"/>
+      <c r="AM40" s="172"/>
+      <c r="AN40" s="172"/>
+      <c r="AO40" s="172"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="23"/>
@@ -16804,33 +16929,33 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="176"/>
-      <c r="O43" s="176"/>
-      <c r="P43" s="176"/>
-      <c r="Q43" s="176"/>
-      <c r="R43" s="176"/>
-      <c r="S43" s="176"/>
-      <c r="T43" s="176"/>
-      <c r="U43" s="176"/>
-      <c r="V43" s="176"/>
-      <c r="W43" s="176"/>
-      <c r="X43" s="176"/>
-      <c r="Y43" s="176"/>
-      <c r="Z43" s="176"/>
-      <c r="AA43" s="176"/>
-      <c r="AB43" s="176"/>
-      <c r="AC43" s="176"/>
-      <c r="AD43" s="176"/>
-      <c r="AE43" s="176"/>
-      <c r="AF43" s="176"/>
-      <c r="AG43" s="176"/>
-      <c r="AH43" s="176"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="173"/>
+      <c r="S43" s="173"/>
+      <c r="T43" s="173"/>
+      <c r="U43" s="173"/>
+      <c r="V43" s="173"/>
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="173"/>
+      <c r="AA43" s="173"/>
+      <c r="AB43" s="173"/>
+      <c r="AC43" s="173"/>
+      <c r="AD43" s="173"/>
+      <c r="AE43" s="173"/>
+      <c r="AF43" s="173"/>
+      <c r="AG43" s="173"/>
+      <c r="AH43" s="173"/>
       <c r="AI43" s="53"/>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="28"/>
@@ -16850,33 +16975,33 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="176"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="176"/>
-      <c r="M44" s="176"/>
-      <c r="N44" s="176"/>
-      <c r="O44" s="176"/>
-      <c r="P44" s="176"/>
-      <c r="Q44" s="176"/>
-      <c r="R44" s="176"/>
-      <c r="S44" s="176"/>
-      <c r="T44" s="176"/>
-      <c r="U44" s="176"/>
-      <c r="V44" s="176"/>
-      <c r="W44" s="176"/>
-      <c r="X44" s="176"/>
-      <c r="Y44" s="176"/>
-      <c r="Z44" s="176"/>
-      <c r="AA44" s="176"/>
-      <c r="AB44" s="176"/>
-      <c r="AC44" s="176"/>
-      <c r="AD44" s="176"/>
-      <c r="AE44" s="176"/>
-      <c r="AF44" s="176"/>
-      <c r="AG44" s="176"/>
-      <c r="AH44" s="176"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="173"/>
+      <c r="O44" s="173"/>
+      <c r="P44" s="173"/>
+      <c r="Q44" s="173"/>
+      <c r="R44" s="173"/>
+      <c r="S44" s="173"/>
+      <c r="T44" s="173"/>
+      <c r="U44" s="173"/>
+      <c r="V44" s="173"/>
+      <c r="W44" s="173"/>
+      <c r="X44" s="173"/>
+      <c r="Y44" s="173"/>
+      <c r="Z44" s="173"/>
+      <c r="AA44" s="173"/>
+      <c r="AB44" s="173"/>
+      <c r="AC44" s="173"/>
+      <c r="AD44" s="173"/>
+      <c r="AE44" s="173"/>
+      <c r="AF44" s="173"/>
+      <c r="AG44" s="173"/>
+      <c r="AH44" s="173"/>
       <c r="AI44" s="28"/>
       <c r="AJ44" s="28"/>
       <c r="AK44" s="28"/>
@@ -18178,18 +18303,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AM39:AO40"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="L43:O44"/>
-    <mergeCell ref="P43:T44"/>
-    <mergeCell ref="U43:Y44"/>
-    <mergeCell ref="Z43:AD44"/>
-    <mergeCell ref="AE43:AH44"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="H39:K40"/>
-    <mergeCell ref="L39:O40"/>
-    <mergeCell ref="P39:S40"/>
-    <mergeCell ref="T39:W40"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
@@ -18202,6 +18315,18 @@
     <mergeCell ref="T1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="H39:K40"/>
+    <mergeCell ref="L39:O40"/>
+    <mergeCell ref="P39:S40"/>
+    <mergeCell ref="T39:W40"/>
+    <mergeCell ref="AM39:AO40"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="L43:O44"/>
+    <mergeCell ref="P43:T44"/>
+    <mergeCell ref="U43:Y44"/>
+    <mergeCell ref="Z43:AD44"/>
+    <mergeCell ref="AE43:AH44"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape"/>
@@ -18217,10 +18342,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR34"/>
+  <dimension ref="A1:AR97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
@@ -18232,170 +18357,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="124" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="173" t="s">
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173" t="s">
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="124" t="s">
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="125" t="s">
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166"/>
+      <c r="AJ1" s="167"/>
+      <c r="AK1" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="124" t="s">
+      <c r="AL1" s="166"/>
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="167"/>
+      <c r="AO1" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="126"/>
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="167"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="156" t="str">
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="133" t="str">
         <f>T2</f>
         <v>Đọc tên</v>
       </c>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="172" t="str">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="175" t="str">
         <f>Cover!C62</f>
         <v>UC_002</v>
       </c>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172" t="str">
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175" t="str">
         <f>Cover!H62</f>
         <v>Đọc tên</v>
       </c>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="156" t="s">
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="131">
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="139">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="131"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="132"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="140"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="161"/>
-      <c r="AK3" s="133"/>
-      <c r="AL3" s="133"/>
-      <c r="AM3" s="133"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="133"/>
-      <c r="AP3" s="133"/>
-      <c r="AQ3" s="133"/>
-      <c r="AR3" s="134"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="141"/>
+      <c r="AM3" s="141"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="141"/>
+      <c r="AP3" s="141"/>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="142"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -19769,7 +19894,9 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="181" t="s">
+        <v>106</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -19814,50 +19941,2950 @@
       <c r="AR33" s="23"/>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="17"/>
-      <c r="AR34" s="25"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="23"/>
+    </row>
+    <row r="35" spans="1:44">
+      <c r="A35" s="4"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="23"/>
+    </row>
+    <row r="36" spans="1:44">
+      <c r="A36" s="4"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="23"/>
+    </row>
+    <row r="37" spans="1:44">
+      <c r="A37" s="4"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="23"/>
+    </row>
+    <row r="38" spans="1:44">
+      <c r="A38" s="4"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="23"/>
+    </row>
+    <row r="39" spans="1:44">
+      <c r="A39" s="4"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="23"/>
+    </row>
+    <row r="40" spans="1:44">
+      <c r="A40" s="4"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="23"/>
+    </row>
+    <row r="41" spans="1:44">
+      <c r="A41" s="4"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="23"/>
+    </row>
+    <row r="42" spans="1:44">
+      <c r="A42" s="4"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="23"/>
+    </row>
+    <row r="43" spans="1:44">
+      <c r="A43" s="4"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="23"/>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="A44" s="4"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="23"/>
+    </row>
+    <row r="45" spans="1:44">
+      <c r="A45" s="4"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="23"/>
+    </row>
+    <row r="46" spans="1:44">
+      <c r="A46" s="4"/>
+      <c r="B46" s="181" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="23"/>
+    </row>
+    <row r="47" spans="1:44">
+      <c r="A47" s="4"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="23"/>
+    </row>
+    <row r="48" spans="1:44">
+      <c r="A48" s="4"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="23"/>
+    </row>
+    <row r="49" spans="1:44">
+      <c r="A49" s="4"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="23"/>
+    </row>
+    <row r="50" spans="1:44">
+      <c r="A50" s="4"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="23"/>
+    </row>
+    <row r="51" spans="1:44">
+      <c r="A51" s="4"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="23"/>
+    </row>
+    <row r="52" spans="1:44">
+      <c r="A52" s="4"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="23"/>
+    </row>
+    <row r="53" spans="1:44">
+      <c r="A53" s="4"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="23"/>
+    </row>
+    <row r="54" spans="1:44">
+      <c r="A54" s="4"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="23"/>
+    </row>
+    <row r="55" spans="1:44">
+      <c r="A55" s="4"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="23"/>
+    </row>
+    <row r="56" spans="1:44">
+      <c r="A56" s="4"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="23"/>
+    </row>
+    <row r="57" spans="1:44">
+      <c r="A57" s="4"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="23"/>
+    </row>
+    <row r="58" spans="1:44">
+      <c r="A58" s="4"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="23"/>
+    </row>
+    <row r="59" spans="1:44">
+      <c r="A59" s="4"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="23"/>
+    </row>
+    <row r="60" spans="1:44">
+      <c r="A60" s="4"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="23"/>
+    </row>
+    <row r="61" spans="1:44">
+      <c r="A61" s="4"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="23"/>
+    </row>
+    <row r="62" spans="1:44">
+      <c r="A62" s="4"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="23"/>
+    </row>
+    <row r="63" spans="1:44">
+      <c r="A63" s="4"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
+      <c r="AR63" s="23"/>
+    </row>
+    <row r="64" spans="1:44">
+      <c r="A64" s="4"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="23"/>
+    </row>
+    <row r="65" spans="1:44">
+      <c r="A65" s="4"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="23"/>
+    </row>
+    <row r="66" spans="1:44">
+      <c r="A66" s="4"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="23"/>
+    </row>
+    <row r="67" spans="1:44">
+      <c r="A67" s="4"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="23"/>
+    </row>
+    <row r="68" spans="1:44">
+      <c r="A68" s="4"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="23"/>
+    </row>
+    <row r="69" spans="1:44">
+      <c r="A69" s="4"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="5"/>
+      <c r="AP69" s="5"/>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="23"/>
+    </row>
+    <row r="70" spans="1:44">
+      <c r="A70" s="4"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="23"/>
+    </row>
+    <row r="71" spans="1:44">
+      <c r="A71" s="4"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="23"/>
+    </row>
+    <row r="72" spans="1:44">
+      <c r="A72" s="4"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="5"/>
+      <c r="AP72" s="5"/>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="23"/>
+    </row>
+    <row r="73" spans="1:44">
+      <c r="A73" s="4"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="23"/>
+    </row>
+    <row r="74" spans="1:44">
+      <c r="A74" s="4"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="23"/>
+    </row>
+    <row r="75" spans="1:44">
+      <c r="A75" s="4"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="23"/>
+    </row>
+    <row r="76" spans="1:44">
+      <c r="A76" s="4"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="23"/>
+    </row>
+    <row r="77" spans="1:44">
+      <c r="A77" s="4"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="5"/>
+      <c r="AO77" s="5"/>
+      <c r="AP77" s="5"/>
+      <c r="AQ77" s="5"/>
+      <c r="AR77" s="23"/>
+    </row>
+    <row r="78" spans="1:44">
+      <c r="A78" s="4"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="5"/>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="23"/>
+    </row>
+    <row r="79" spans="1:44">
+      <c r="A79" s="4"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="23"/>
+    </row>
+    <row r="80" spans="1:44">
+      <c r="A80" s="4"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="5"/>
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="23"/>
+    </row>
+    <row r="81" spans="1:44">
+      <c r="A81" s="4"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="5"/>
+      <c r="AP81" s="5"/>
+      <c r="AQ81" s="5"/>
+      <c r="AR81" s="23"/>
+    </row>
+    <row r="82" spans="1:44">
+      <c r="A82" s="4"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="23"/>
+    </row>
+    <row r="83" spans="1:44">
+      <c r="A83" s="4"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="23"/>
+    </row>
+    <row r="84" spans="1:44">
+      <c r="A84" s="4"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="5"/>
+      <c r="AP84" s="5"/>
+      <c r="AQ84" s="5"/>
+      <c r="AR84" s="23"/>
+    </row>
+    <row r="85" spans="1:44">
+      <c r="A85" s="4"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+      <c r="AM85" s="5"/>
+      <c r="AN85" s="5"/>
+      <c r="AO85" s="5"/>
+      <c r="AP85" s="5"/>
+      <c r="AQ85" s="5"/>
+      <c r="AR85" s="23"/>
+    </row>
+    <row r="86" spans="1:44">
+      <c r="A86" s="4"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="5"/>
+      <c r="AP86" s="5"/>
+      <c r="AQ86" s="5"/>
+      <c r="AR86" s="23"/>
+    </row>
+    <row r="87" spans="1:44">
+      <c r="A87" s="4"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="5"/>
+      <c r="AP87" s="5"/>
+      <c r="AQ87" s="5"/>
+      <c r="AR87" s="23"/>
+    </row>
+    <row r="88" spans="1:44">
+      <c r="A88" s="4"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="5"/>
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="5"/>
+      <c r="AR88" s="23"/>
+    </row>
+    <row r="89" spans="1:44">
+      <c r="A89" s="4"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="5"/>
+      <c r="AP89" s="5"/>
+      <c r="AQ89" s="5"/>
+      <c r="AR89" s="23"/>
+    </row>
+    <row r="90" spans="1:44">
+      <c r="A90" s="4"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="5"/>
+      <c r="AP90" s="5"/>
+      <c r="AQ90" s="5"/>
+      <c r="AR90" s="23"/>
+    </row>
+    <row r="91" spans="1:44">
+      <c r="A91" s="4"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+      <c r="AM91" s="5"/>
+      <c r="AN91" s="5"/>
+      <c r="AO91" s="5"/>
+      <c r="AP91" s="5"/>
+      <c r="AQ91" s="5"/>
+      <c r="AR91" s="23"/>
+    </row>
+    <row r="92" spans="1:44">
+      <c r="A92" s="4"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="5"/>
+      <c r="AO92" s="5"/>
+      <c r="AP92" s="5"/>
+      <c r="AQ92" s="5"/>
+      <c r="AR92" s="23"/>
+    </row>
+    <row r="93" spans="1:44">
+      <c r="A93" s="4"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="5"/>
+      <c r="AO93" s="5"/>
+      <c r="AP93" s="5"/>
+      <c r="AQ93" s="5"/>
+      <c r="AR93" s="23"/>
+    </row>
+    <row r="94" spans="1:44">
+      <c r="A94" s="4"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="5"/>
+      <c r="AR94" s="23"/>
+    </row>
+    <row r="95" spans="1:44">
+      <c r="A95" s="4"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+      <c r="AP95" s="5"/>
+      <c r="AQ95" s="5"/>
+      <c r="AR95" s="23"/>
+    </row>
+    <row r="96" spans="1:44">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+      <c r="AM96" s="5"/>
+      <c r="AN96" s="5"/>
+      <c r="AO96" s="5"/>
+      <c r="AP96" s="5"/>
+      <c r="AQ96" s="5"/>
+      <c r="AR96" s="23"/>
+    </row>
+    <row r="97" spans="1:44">
+      <c r="A97" s="16"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="17"/>
+      <c r="AI97" s="17"/>
+      <c r="AJ97" s="17"/>
+      <c r="AK97" s="17"/>
+      <c r="AL97" s="17"/>
+      <c r="AM97" s="17"/>
+      <c r="AN97" s="17"/>
+      <c r="AO97" s="17"/>
+      <c r="AP97" s="17"/>
+      <c r="AQ97" s="17"/>
+      <c r="AR97" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -19876,11 +22903,11 @@
     <mergeCell ref="AK1:AN1"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LProjectName  SRS&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19904,102 +22931,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="124" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="173" t="s">
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173" t="s">
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="124" t="s">
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="125" t="s">
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166"/>
+      <c r="AJ1" s="167"/>
+      <c r="AK1" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="124" t="s">
+      <c r="AL1" s="166"/>
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="167"/>
+      <c r="AO1" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="126"/>
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="167"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="158"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="135"/>
       <c r="AK2" s="177"/>
       <c r="AL2" s="177"/>
       <c r="AM2" s="177"/>
@@ -20010,42 +23037,42 @@
       <c r="AR2" s="178"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="161"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="138"/>
       <c r="AK3" s="179"/>
       <c r="AL3" s="179"/>
       <c r="AM3" s="179"/>

--- a/doc/requirement/RFID_UseCase_v1.0.xlsx
+++ b/doc/requirement/RFID_UseCase_v1.0.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Normal_User\Desktop\RFID\doc\requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyvam\Desktop\RFID\doc\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeHistory" sheetId="1" r:id="rId1"/>
     <sheet name="Cover" sheetId="2" r:id="rId2"/>
-    <sheet name="Đăng kí thẻ" sheetId="3" r:id="rId3"/>
-    <sheet name="Gọi tên" sheetId="4" r:id="rId4"/>
-    <sheet name="Template" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Đăng kí thẻ" sheetId="3" r:id="rId4"/>
+    <sheet name="Gọi tên" sheetId="4" r:id="rId5"/>
+    <sheet name="abc" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_Fill" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_Key1" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="_Key1" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
-    <definedName name="_Key2" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="_Key2" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_Sort" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="abcv" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
@@ -55,20 +56,20 @@
     <definedName name="LDC見積" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="ｌｌｌ" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="Nam" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">abc!$A$1:$AR$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ChangeHistory!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Cover!$A$1:$AP$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Đăng kí thẻ'!$A$1:$AR$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Gọi tên'!$A$1:$AR$97</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Template!$A$1:$AR$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Đăng kí thẻ'!$A$1:$AR$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Gọi tên'!$A$1:$AR$97</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">abc!$1:4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Cover!$1:4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Đăng kí thẻ'!$1:4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Gọi tên'!$1:4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">Template!$1:4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Đăng kí thẻ'!$1:4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Gọi tên'!$1:4</definedName>
     <definedName name="qq" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="sadasda" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="sdddsdsd" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="sss" hidden="1">{#N/A,#N/A,FALSE,"Chi tiÆt"}</definedName>
-    <definedName name="UClist" localSheetId="4">#REF!</definedName>
+    <definedName name="UClist" localSheetId="5">#REF!</definedName>
     <definedName name="UClist">#REF!</definedName>
     <definedName name="ưew" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
     <definedName name="w" hidden="1">{#N/A,#N/A,TRUE,"商品マスター";#N/A,#N/A,TRUE,"店舗マスター";#N/A,#N/A,TRUE,"在庫マスター";#N/A,#N/A,TRUE,"カレンダーマスター";#N/A,#N/A,TRUE,"分類コード変換マスター";#N/A,#N/A,TRUE,"重点型番マスター";#N/A,#N/A,TRUE,"商品分類コードマスター";#N/A,#N/A,TRUE,"商品分類別店舗型定義";#N/A,#N/A,TRUE,"日別店舗別型別実績 ";#N/A,#N/A,TRUE,"週間店舗別型別実績 ";#N/A,#N/A,TRUE,"月度店舗別型別実績";#N/A,#N/A,TRUE,"四半期店舗別型別実績 ";#N/A,#N/A,TRUE,"年間店舗別型別実績";#N/A,#N/A,TRUE,"日別店舗別小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別小分類実績 ";#N/A,#N/A,TRUE,"月度店舗別小分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別小分類実績 ";#N/A,#N/A,TRUE,"日別店舗別中分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中分類実績 ";#N/A,#N/A,TRUE,"月度店舗別中分類実績 ";#N/A,#N/A,TRUE,"四半期店舗別中分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中分類実績";#N/A,#N/A,TRUE,"日別店舗別中小分類実績 ";#N/A,#N/A,TRUE,"週間店舗別中小分類実績";#N/A,#N/A,TRUE,"月度店舗別中小分類実績";#N/A,#N/A,TRUE,"四半期店舗別中小分類実績 ";#N/A,#N/A,TRUE,"年度店舗別中小分類実績";#N/A,#N/A,TRUE,"日別店舗別大分類実績";#N/A,#N/A,TRUE,"週間店舗別大分類実績";#N/A,#N/A,TRUE,"月度店舗別大分類実績";#N/A,#N/A,TRUE,"四半期店舗別大分類別実績";#N/A,#N/A,TRUE,"年度店舗別大分類実績 ";#N/A,#N/A,TRUE,"日別店舗別商品群実績 ";#N/A,#N/A,TRUE,"週間店舗別商品群実績 ";#N/A,#N/A,TRUE,"月度店舗別商品群実績";#N/A,#N/A,TRUE,"四半期別商品群実績";#N/A,#N/A,TRUE,"年間店舗別商品群実績";#N/A,#N/A,TRUE,"日別型別実績";#N/A,#N/A,TRUE,"週間型別実績";#N/A,#N/A,TRUE,"月度型別実績";#N/A,#N/A,TRUE,"四半期型別実績";#N/A,#N/A,TRUE,"年間型別実績";#N/A,#N/A,TRUE,"日別小分類実績";#N/A,#N/A,TRUE,"週間小分類実績";#N/A,#N/A,TRUE,"月度小分類実績";#N/A,#N/A,TRUE,"四半期小分類実績";#N/A,#N/A,TRUE,"年度小分類実績";#N/A,#N/A,TRUE,"日別中分類実績";#N/A,#N/A,TRUE,"週間中分類実績";#N/A,#N/A,TRUE,"月度中分類実績";#N/A,#N/A,TRUE,"四半期中分類実績";#N/A,#N/A,TRUE,"年度中分類実績";#N/A,#N/A,TRUE,"日別中小分類実績"}</definedName>
@@ -303,7 +304,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Security matrix</t>
     </r>
@@ -477,32 +478,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -510,7 +511,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -518,12 +519,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Wingdings 3"/>
+      <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
@@ -533,133 +535,134 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Webdings"/>
+      <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -671,39 +674,39 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -714,7 +717,7 @@
       <sz val="11"/>
       <color indexed="60"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -725,14 +728,14 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -802,7 +805,7 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -823,7 +826,7 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -838,7 +841,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -850,7 +853,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5369,6 +5372,76 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1882" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="3633" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="64" fillId="2" borderId="0" xfId="3633" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5414,18 +5487,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5456,76 +5517,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5540,7 +5544,6 @@
     <xf numFmtId="174" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="64" fillId="2" borderId="0" xfId="3633" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3719">
     <cellStyle name="??" xfId="392"/>
@@ -10407,7 +10410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AC74" sqref="AC74"/>
     </sheetView>
   </sheetViews>
@@ -10425,156 +10428,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="165" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="166" t="s">
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="165" t="s">
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="167"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="127"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="144" t="s">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="133" t="s">
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="139">
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="132">
         <f>DATE(2017,1,30)</f>
         <v>42765</v>
       </c>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="139">
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="132">
         <f>DATE(2017,2,2)</f>
         <v>42768</v>
       </c>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="140"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="133"/>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="141"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="142"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="135"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="54"/>
@@ -10712,181 +10715,181 @@
     </row>
     <row r="7" spans="1:42" ht="12.75" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="151"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="152"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="171"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="171"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="171"/>
+      <c r="X7" s="171"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="171"/>
+      <c r="AA7" s="171"/>
+      <c r="AB7" s="171"/>
+      <c r="AC7" s="171"/>
+      <c r="AD7" s="171"/>
+      <c r="AE7" s="171"/>
+      <c r="AF7" s="171"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="171"/>
+      <c r="AI7" s="171"/>
+      <c r="AJ7" s="171"/>
+      <c r="AK7" s="171"/>
+      <c r="AL7" s="171"/>
+      <c r="AM7" s="171"/>
+      <c r="AN7" s="171"/>
+      <c r="AO7" s="171"/>
+      <c r="AP7" s="172"/>
     </row>
     <row r="8" spans="1:42" ht="12.75" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="151"/>
-      <c r="AK8" s="151"/>
-      <c r="AL8" s="151"/>
-      <c r="AM8" s="151"/>
-      <c r="AN8" s="151"/>
-      <c r="AO8" s="151"/>
-      <c r="AP8" s="152"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="172"/>
     </row>
     <row r="9" spans="1:42" ht="12.75" customHeight="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
-      <c r="AE9" s="151"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="151"/>
-      <c r="AJ9" s="151"/>
-      <c r="AK9" s="151"/>
-      <c r="AL9" s="151"/>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151"/>
-      <c r="AP9" s="152"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="171"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="171"/>
+      <c r="AK9" s="171"/>
+      <c r="AL9" s="171"/>
+      <c r="AM9" s="171"/>
+      <c r="AN9" s="171"/>
+      <c r="AO9" s="171"/>
+      <c r="AP9" s="172"/>
     </row>
     <row r="10" spans="1:42" ht="12.75" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="151"/>
-      <c r="AJ10" s="151"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="151"/>
-      <c r="AM10" s="151"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="152"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="171"/>
+      <c r="AJ10" s="171"/>
+      <c r="AK10" s="171"/>
+      <c r="AL10" s="171"/>
+      <c r="AM10" s="171"/>
+      <c r="AN10" s="171"/>
+      <c r="AO10" s="171"/>
+      <c r="AP10" s="172"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="54"/>
@@ -12708,46 +12711,46 @@
       <c r="C52" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="168" t="s">
+      <c r="D52" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="168" t="s">
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="168"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="168"/>
-      <c r="M52" s="168"/>
-      <c r="N52" s="168"/>
-      <c r="O52" s="168"/>
-      <c r="P52" s="168"/>
-      <c r="Q52" s="168"/>
-      <c r="R52" s="168"/>
-      <c r="S52" s="168"/>
-      <c r="T52" s="168"/>
-      <c r="U52" s="168"/>
-      <c r="V52" s="168"/>
-      <c r="W52" s="169" t="s">
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="128"/>
+      <c r="W52" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="X52" s="170"/>
-      <c r="Y52" s="170"/>
-      <c r="Z52" s="170"/>
-      <c r="AA52" s="170"/>
-      <c r="AB52" s="170"/>
-      <c r="AC52" s="170"/>
-      <c r="AD52" s="170"/>
-      <c r="AE52" s="170"/>
-      <c r="AF52" s="170"/>
-      <c r="AG52" s="170"/>
-      <c r="AH52" s="170"/>
-      <c r="AI52" s="170"/>
-      <c r="AJ52" s="170"/>
-      <c r="AK52" s="171"/>
+      <c r="X52" s="130"/>
+      <c r="Y52" s="130"/>
+      <c r="Z52" s="130"/>
+      <c r="AA52" s="130"/>
+      <c r="AB52" s="130"/>
+      <c r="AC52" s="130"/>
+      <c r="AD52" s="130"/>
+      <c r="AE52" s="130"/>
+      <c r="AF52" s="130"/>
+      <c r="AG52" s="130"/>
+      <c r="AH52" s="130"/>
+      <c r="AI52" s="130"/>
+      <c r="AJ52" s="130"/>
+      <c r="AK52" s="131"/>
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
@@ -12760,46 +12763,46 @@
       <c r="C53" s="80">
         <v>1</v>
       </c>
-      <c r="D53" s="157" t="s">
+      <c r="D53" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="162" t="s">
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="163"/>
-      <c r="T53" s="163"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="164"/>
-      <c r="W53" s="158" t="s">
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="139"/>
+      <c r="W53" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="X53" s="159"/>
-      <c r="Y53" s="159"/>
-      <c r="Z53" s="159"/>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
-      <c r="AD53" s="159"/>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="159"/>
-      <c r="AG53" s="159"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="159"/>
-      <c r="AJ53" s="159"/>
-      <c r="AK53" s="160"/>
+      <c r="X53" s="141"/>
+      <c r="Y53" s="141"/>
+      <c r="Z53" s="141"/>
+      <c r="AA53" s="141"/>
+      <c r="AB53" s="141"/>
+      <c r="AC53" s="141"/>
+      <c r="AD53" s="141"/>
+      <c r="AE53" s="141"/>
+      <c r="AF53" s="141"/>
+      <c r="AG53" s="141"/>
+      <c r="AH53" s="141"/>
+      <c r="AI53" s="141"/>
+      <c r="AJ53" s="141"/>
+      <c r="AK53" s="142"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
@@ -12812,46 +12815,46 @@
       <c r="C54" s="80">
         <v>2</v>
       </c>
-      <c r="D54" s="156" t="s">
+      <c r="D54" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="162" t="s">
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="163"/>
-      <c r="J54" s="163"/>
-      <c r="K54" s="163"/>
-      <c r="L54" s="163"/>
-      <c r="M54" s="163"/>
-      <c r="N54" s="163"/>
-      <c r="O54" s="163"/>
-      <c r="P54" s="163"/>
-      <c r="Q54" s="163"/>
-      <c r="R54" s="163"/>
-      <c r="S54" s="163"/>
-      <c r="T54" s="163"/>
-      <c r="U54" s="163"/>
-      <c r="V54" s="164"/>
-      <c r="W54" s="158" t="s">
+      <c r="I54" s="138"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="138"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="138"/>
+      <c r="N54" s="138"/>
+      <c r="O54" s="138"/>
+      <c r="P54" s="138"/>
+      <c r="Q54" s="138"/>
+      <c r="R54" s="138"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="138"/>
+      <c r="V54" s="139"/>
+      <c r="W54" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="X54" s="159"/>
-      <c r="Y54" s="159"/>
-      <c r="Z54" s="159"/>
-      <c r="AA54" s="159"/>
-      <c r="AB54" s="159"/>
-      <c r="AC54" s="159"/>
-      <c r="AD54" s="159"/>
-      <c r="AE54" s="159"/>
-      <c r="AF54" s="159"/>
-      <c r="AG54" s="159"/>
-      <c r="AH54" s="159"/>
-      <c r="AI54" s="159"/>
-      <c r="AJ54" s="159"/>
-      <c r="AK54" s="160"/>
+      <c r="X54" s="141"/>
+      <c r="Y54" s="141"/>
+      <c r="Z54" s="141"/>
+      <c r="AA54" s="141"/>
+      <c r="AB54" s="141"/>
+      <c r="AC54" s="141"/>
+      <c r="AD54" s="141"/>
+      <c r="AE54" s="141"/>
+      <c r="AF54" s="141"/>
+      <c r="AG54" s="141"/>
+      <c r="AH54" s="141"/>
+      <c r="AI54" s="141"/>
+      <c r="AJ54" s="141"/>
+      <c r="AK54" s="142"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
       <c r="AN54" s="5"/>
@@ -12864,46 +12867,46 @@
       <c r="C55" s="80">
         <v>3</v>
       </c>
-      <c r="D55" s="156" t="s">
+      <c r="D55" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="162" t="s">
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="163"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="163"/>
-      <c r="L55" s="163"/>
-      <c r="M55" s="163"/>
-      <c r="N55" s="163"/>
-      <c r="O55" s="163"/>
-      <c r="P55" s="163"/>
-      <c r="Q55" s="163"/>
-      <c r="R55" s="163"/>
-      <c r="S55" s="163"/>
-      <c r="T55" s="163"/>
-      <c r="U55" s="163"/>
-      <c r="V55" s="164"/>
-      <c r="W55" s="158" t="s">
+      <c r="I55" s="138"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="138"/>
+      <c r="L55" s="138"/>
+      <c r="M55" s="138"/>
+      <c r="N55" s="138"/>
+      <c r="O55" s="138"/>
+      <c r="P55" s="138"/>
+      <c r="Q55" s="138"/>
+      <c r="R55" s="138"/>
+      <c r="S55" s="138"/>
+      <c r="T55" s="138"/>
+      <c r="U55" s="138"/>
+      <c r="V55" s="139"/>
+      <c r="W55" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="X55" s="159"/>
-      <c r="Y55" s="159"/>
-      <c r="Z55" s="159"/>
-      <c r="AA55" s="159"/>
-      <c r="AB55" s="159"/>
-      <c r="AC55" s="159"/>
-      <c r="AD55" s="159"/>
-      <c r="AE55" s="159"/>
-      <c r="AF55" s="159"/>
-      <c r="AG55" s="159"/>
-      <c r="AH55" s="159"/>
-      <c r="AI55" s="159"/>
-      <c r="AJ55" s="159"/>
-      <c r="AK55" s="160"/>
+      <c r="X55" s="141"/>
+      <c r="Y55" s="141"/>
+      <c r="Z55" s="141"/>
+      <c r="AA55" s="141"/>
+      <c r="AB55" s="141"/>
+      <c r="AC55" s="141"/>
+      <c r="AD55" s="141"/>
+      <c r="AE55" s="141"/>
+      <c r="AF55" s="141"/>
+      <c r="AG55" s="141"/>
+      <c r="AH55" s="141"/>
+      <c r="AI55" s="141"/>
+      <c r="AJ55" s="141"/>
+      <c r="AK55" s="142"/>
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -12916,46 +12919,46 @@
       <c r="C56" s="80">
         <v>4</v>
       </c>
-      <c r="D56" s="156" t="s">
+      <c r="D56" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="162" t="s">
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="163"/>
-      <c r="M56" s="163"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="163"/>
-      <c r="P56" s="163"/>
-      <c r="Q56" s="163"/>
-      <c r="R56" s="163"/>
-      <c r="S56" s="163"/>
-      <c r="T56" s="163"/>
-      <c r="U56" s="163"/>
-      <c r="V56" s="164"/>
-      <c r="W56" s="158" t="s">
+      <c r="I56" s="138"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="138"/>
+      <c r="L56" s="138"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="138"/>
+      <c r="P56" s="138"/>
+      <c r="Q56" s="138"/>
+      <c r="R56" s="138"/>
+      <c r="S56" s="138"/>
+      <c r="T56" s="138"/>
+      <c r="U56" s="138"/>
+      <c r="V56" s="139"/>
+      <c r="W56" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="X56" s="159"/>
-      <c r="Y56" s="159"/>
-      <c r="Z56" s="159"/>
-      <c r="AA56" s="159"/>
-      <c r="AB56" s="159"/>
-      <c r="AC56" s="159"/>
-      <c r="AD56" s="159"/>
-      <c r="AE56" s="159"/>
-      <c r="AF56" s="159"/>
-      <c r="AG56" s="159"/>
-      <c r="AH56" s="159"/>
-      <c r="AI56" s="159"/>
-      <c r="AJ56" s="159"/>
-      <c r="AK56" s="160"/>
+      <c r="X56" s="141"/>
+      <c r="Y56" s="141"/>
+      <c r="Z56" s="141"/>
+      <c r="AA56" s="141"/>
+      <c r="AB56" s="141"/>
+      <c r="AC56" s="141"/>
+      <c r="AD56" s="141"/>
+      <c r="AE56" s="141"/>
+      <c r="AF56" s="141"/>
+      <c r="AG56" s="141"/>
+      <c r="AH56" s="141"/>
+      <c r="AI56" s="141"/>
+      <c r="AJ56" s="141"/>
+      <c r="AK56" s="142"/>
       <c r="AL56" s="5"/>
       <c r="AM56" s="5"/>
       <c r="AN56" s="5"/>
@@ -12968,46 +12971,46 @@
       <c r="C57" s="80">
         <v>5</v>
       </c>
-      <c r="D57" s="156" t="s">
+      <c r="D57" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="158" t="s">
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="159"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="159"/>
-      <c r="N57" s="159"/>
-      <c r="O57" s="159"/>
-      <c r="P57" s="159"/>
-      <c r="Q57" s="159"/>
-      <c r="R57" s="159"/>
-      <c r="S57" s="159"/>
-      <c r="T57" s="159"/>
-      <c r="U57" s="159"/>
-      <c r="V57" s="160"/>
-      <c r="W57" s="158" t="s">
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
+      <c r="M57" s="141"/>
+      <c r="N57" s="141"/>
+      <c r="O57" s="141"/>
+      <c r="P57" s="141"/>
+      <c r="Q57" s="141"/>
+      <c r="R57" s="141"/>
+      <c r="S57" s="141"/>
+      <c r="T57" s="141"/>
+      <c r="U57" s="141"/>
+      <c r="V57" s="142"/>
+      <c r="W57" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="X57" s="159"/>
-      <c r="Y57" s="159"/>
-      <c r="Z57" s="159"/>
-      <c r="AA57" s="159"/>
-      <c r="AB57" s="159"/>
-      <c r="AC57" s="159"/>
-      <c r="AD57" s="159"/>
-      <c r="AE57" s="159"/>
-      <c r="AF57" s="159"/>
-      <c r="AG57" s="159"/>
-      <c r="AH57" s="159"/>
-      <c r="AI57" s="159"/>
-      <c r="AJ57" s="159"/>
-      <c r="AK57" s="160"/>
+      <c r="X57" s="141"/>
+      <c r="Y57" s="141"/>
+      <c r="Z57" s="141"/>
+      <c r="AA57" s="141"/>
+      <c r="AB57" s="141"/>
+      <c r="AC57" s="141"/>
+      <c r="AD57" s="141"/>
+      <c r="AE57" s="141"/>
+      <c r="AF57" s="141"/>
+      <c r="AG57" s="141"/>
+      <c r="AH57" s="141"/>
+      <c r="AI57" s="141"/>
+      <c r="AJ57" s="141"/>
+      <c r="AK57" s="142"/>
       <c r="AL57" s="5"/>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
@@ -13109,45 +13112,45 @@
       <c r="B60" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="161" t="s">
+      <c r="C60" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161" t="s">
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="I60" s="161"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="161"/>
-      <c r="M60" s="161"/>
-      <c r="N60" s="161"/>
-      <c r="O60" s="161"/>
-      <c r="P60" s="161"/>
-      <c r="Q60" s="161"/>
-      <c r="R60" s="161" t="s">
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="S60" s="161"/>
-      <c r="T60" s="161"/>
-      <c r="U60" s="161"/>
-      <c r="V60" s="161"/>
-      <c r="W60" s="161"/>
-      <c r="X60" s="161"/>
-      <c r="Y60" s="161"/>
-      <c r="Z60" s="161"/>
-      <c r="AA60" s="161"/>
-      <c r="AB60" s="161"/>
-      <c r="AC60" s="161"/>
-      <c r="AD60" s="161"/>
-      <c r="AE60" s="161"/>
-      <c r="AF60" s="161"/>
-      <c r="AG60" s="161"/>
-      <c r="AH60" s="161"/>
-      <c r="AI60" s="161"/>
+      <c r="S60" s="144"/>
+      <c r="T60" s="144"/>
+      <c r="U60" s="144"/>
+      <c r="V60" s="144"/>
+      <c r="W60" s="144"/>
+      <c r="X60" s="144"/>
+      <c r="Y60" s="144"/>
+      <c r="Z60" s="144"/>
+      <c r="AA60" s="144"/>
+      <c r="AB60" s="144"/>
+      <c r="AC60" s="144"/>
+      <c r="AD60" s="144"/>
+      <c r="AE60" s="144"/>
+      <c r="AF60" s="144"/>
+      <c r="AG60" s="144"/>
+      <c r="AH60" s="144"/>
+      <c r="AI60" s="144"/>
       <c r="AJ60" s="64"/>
       <c r="AK60" s="64"/>
       <c r="AL60" s="64"/>
@@ -13161,13 +13164,13 @@
       <c r="B61" s="83">
         <v>1</v>
       </c>
-      <c r="C61" s="124" t="s">
+      <c r="C61" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="126"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="150"/>
       <c r="H61" s="84" t="s">
         <v>47</v>
       </c>
@@ -13180,26 +13183,26 @@
       <c r="O61" s="88"/>
       <c r="P61" s="88"/>
       <c r="Q61" s="88"/>
-      <c r="R61" s="153" t="s">
+      <c r="R61" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="S61" s="154"/>
-      <c r="T61" s="154"/>
-      <c r="U61" s="154"/>
-      <c r="V61" s="154"/>
-      <c r="W61" s="154"/>
-      <c r="X61" s="154"/>
-      <c r="Y61" s="154"/>
-      <c r="Z61" s="154"/>
-      <c r="AA61" s="154"/>
-      <c r="AB61" s="154"/>
-      <c r="AC61" s="154"/>
-      <c r="AD61" s="154"/>
-      <c r="AE61" s="154"/>
-      <c r="AF61" s="154"/>
-      <c r="AG61" s="154"/>
-      <c r="AH61" s="154"/>
-      <c r="AI61" s="155"/>
+      <c r="S61" s="146"/>
+      <c r="T61" s="146"/>
+      <c r="U61" s="146"/>
+      <c r="V61" s="146"/>
+      <c r="W61" s="146"/>
+      <c r="X61" s="146"/>
+      <c r="Y61" s="146"/>
+      <c r="Z61" s="146"/>
+      <c r="AA61" s="146"/>
+      <c r="AB61" s="146"/>
+      <c r="AC61" s="146"/>
+      <c r="AD61" s="146"/>
+      <c r="AE61" s="146"/>
+      <c r="AF61" s="146"/>
+      <c r="AG61" s="146"/>
+      <c r="AH61" s="146"/>
+      <c r="AI61" s="147"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
       <c r="AL61" s="5"/>
@@ -13213,13 +13216,13 @@
       <c r="B62" s="86">
         <v>2</v>
       </c>
-      <c r="C62" s="124" t="s">
+      <c r="C62" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="126"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="150"/>
       <c r="H62" s="87" t="s">
         <v>50</v>
       </c>
@@ -13232,26 +13235,26 @@
       <c r="O62" s="90"/>
       <c r="P62" s="90"/>
       <c r="Q62" s="90"/>
-      <c r="R62" s="127" t="s">
+      <c r="R62" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="S62" s="128"/>
-      <c r="T62" s="128"/>
-      <c r="U62" s="128"/>
-      <c r="V62" s="128"/>
-      <c r="W62" s="128"/>
-      <c r="X62" s="128"/>
-      <c r="Y62" s="128"/>
-      <c r="Z62" s="128"/>
-      <c r="AA62" s="128"/>
-      <c r="AB62" s="128"/>
-      <c r="AC62" s="128"/>
-      <c r="AD62" s="128"/>
-      <c r="AE62" s="128"/>
-      <c r="AF62" s="128"/>
-      <c r="AG62" s="128"/>
-      <c r="AH62" s="128"/>
-      <c r="AI62" s="129"/>
+      <c r="S62" s="152"/>
+      <c r="T62" s="152"/>
+      <c r="U62" s="152"/>
+      <c r="V62" s="152"/>
+      <c r="W62" s="152"/>
+      <c r="X62" s="152"/>
+      <c r="Y62" s="152"/>
+      <c r="Z62" s="152"/>
+      <c r="AA62" s="152"/>
+      <c r="AB62" s="152"/>
+      <c r="AC62" s="152"/>
+      <c r="AD62" s="152"/>
+      <c r="AE62" s="152"/>
+      <c r="AF62" s="152"/>
+      <c r="AG62" s="152"/>
+      <c r="AH62" s="152"/>
+      <c r="AI62" s="153"/>
       <c r="AJ62" s="55"/>
       <c r="AK62" s="55"/>
       <c r="AL62" s="55"/>
@@ -13265,13 +13268,13 @@
       <c r="B63" s="86">
         <v>3</v>
       </c>
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="126"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="149"/>
+      <c r="G63" s="150"/>
       <c r="H63" s="87" t="s">
         <v>53</v>
       </c>
@@ -13284,26 +13287,26 @@
       <c r="O63" s="90"/>
       <c r="P63" s="90"/>
       <c r="Q63" s="90"/>
-      <c r="R63" s="127" t="s">
+      <c r="R63" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="128"/>
-      <c r="T63" s="128"/>
-      <c r="U63" s="128"/>
-      <c r="V63" s="128"/>
-      <c r="W63" s="128"/>
-      <c r="X63" s="128"/>
-      <c r="Y63" s="128"/>
-      <c r="Z63" s="128"/>
-      <c r="AA63" s="128"/>
-      <c r="AB63" s="128"/>
-      <c r="AC63" s="128"/>
-      <c r="AD63" s="128"/>
-      <c r="AE63" s="128"/>
-      <c r="AF63" s="128"/>
-      <c r="AG63" s="128"/>
-      <c r="AH63" s="128"/>
-      <c r="AI63" s="129"/>
+      <c r="S63" s="152"/>
+      <c r="T63" s="152"/>
+      <c r="U63" s="152"/>
+      <c r="V63" s="152"/>
+      <c r="W63" s="152"/>
+      <c r="X63" s="152"/>
+      <c r="Y63" s="152"/>
+      <c r="Z63" s="152"/>
+      <c r="AA63" s="152"/>
+      <c r="AB63" s="152"/>
+      <c r="AC63" s="152"/>
+      <c r="AD63" s="152"/>
+      <c r="AE63" s="152"/>
+      <c r="AF63" s="152"/>
+      <c r="AG63" s="152"/>
+      <c r="AH63" s="152"/>
+      <c r="AI63" s="153"/>
       <c r="AJ63" s="55"/>
       <c r="AK63" s="55"/>
       <c r="AL63" s="55"/>
@@ -13323,13 +13326,13 @@
       <c r="B64" s="86">
         <v>4</v>
       </c>
-      <c r="C64" s="124" t="s">
+      <c r="C64" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="126"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="150"/>
       <c r="H64" s="87" t="s">
         <v>56</v>
       </c>
@@ -13342,26 +13345,26 @@
       <c r="O64" s="90"/>
       <c r="P64" s="90"/>
       <c r="Q64" s="90"/>
-      <c r="R64" s="127" t="s">
+      <c r="R64" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="S64" s="128"/>
-      <c r="T64" s="128"/>
-      <c r="U64" s="128"/>
-      <c r="V64" s="128"/>
-      <c r="W64" s="128"/>
-      <c r="X64" s="128"/>
-      <c r="Y64" s="128"/>
-      <c r="Z64" s="128"/>
-      <c r="AA64" s="128"/>
-      <c r="AB64" s="128"/>
-      <c r="AC64" s="128"/>
-      <c r="AD64" s="128"/>
-      <c r="AE64" s="128"/>
-      <c r="AF64" s="128"/>
-      <c r="AG64" s="128"/>
-      <c r="AH64" s="128"/>
-      <c r="AI64" s="129"/>
+      <c r="S64" s="152"/>
+      <c r="T64" s="152"/>
+      <c r="U64" s="152"/>
+      <c r="V64" s="152"/>
+      <c r="W64" s="152"/>
+      <c r="X64" s="152"/>
+      <c r="Y64" s="152"/>
+      <c r="Z64" s="152"/>
+      <c r="AA64" s="152"/>
+      <c r="AB64" s="152"/>
+      <c r="AC64" s="152"/>
+      <c r="AD64" s="152"/>
+      <c r="AE64" s="152"/>
+      <c r="AF64" s="152"/>
+      <c r="AG64" s="152"/>
+      <c r="AH64" s="152"/>
+      <c r="AI64" s="153"/>
       <c r="AJ64" s="55"/>
       <c r="AK64" s="55"/>
       <c r="AL64" s="55"/>
@@ -13381,13 +13384,13 @@
       <c r="B65" s="86">
         <v>5</v>
       </c>
-      <c r="C65" s="124" t="s">
+      <c r="C65" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="126"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149"/>
+      <c r="G65" s="150"/>
       <c r="H65" s="87" t="s">
         <v>59</v>
       </c>
@@ -13400,26 +13403,26 @@
       <c r="O65" s="90"/>
       <c r="P65" s="90"/>
       <c r="Q65" s="90"/>
-      <c r="R65" s="127" t="s">
+      <c r="R65" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="S65" s="128"/>
-      <c r="T65" s="128"/>
-      <c r="U65" s="128"/>
-      <c r="V65" s="128"/>
-      <c r="W65" s="128"/>
-      <c r="X65" s="128"/>
-      <c r="Y65" s="128"/>
-      <c r="Z65" s="128"/>
-      <c r="AA65" s="128"/>
-      <c r="AB65" s="128"/>
-      <c r="AC65" s="128"/>
-      <c r="AD65" s="128"/>
-      <c r="AE65" s="128"/>
-      <c r="AF65" s="128"/>
-      <c r="AG65" s="128"/>
-      <c r="AH65" s="128"/>
-      <c r="AI65" s="129"/>
+      <c r="S65" s="152"/>
+      <c r="T65" s="152"/>
+      <c r="U65" s="152"/>
+      <c r="V65" s="152"/>
+      <c r="W65" s="152"/>
+      <c r="X65" s="152"/>
+      <c r="Y65" s="152"/>
+      <c r="Z65" s="152"/>
+      <c r="AA65" s="152"/>
+      <c r="AB65" s="152"/>
+      <c r="AC65" s="152"/>
+      <c r="AD65" s="152"/>
+      <c r="AE65" s="152"/>
+      <c r="AF65" s="152"/>
+      <c r="AG65" s="152"/>
+      <c r="AH65" s="152"/>
+      <c r="AI65" s="153"/>
       <c r="AJ65" s="55"/>
       <c r="AK65" s="55"/>
       <c r="AL65" s="55"/>
@@ -13439,13 +13442,13 @@
       <c r="B66" s="86">
         <v>6</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="126"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="150"/>
       <c r="H66" s="87" t="s">
         <v>62</v>
       </c>
@@ -13458,26 +13461,26 @@
       <c r="O66" s="90"/>
       <c r="P66" s="90"/>
       <c r="Q66" s="90"/>
-      <c r="R66" s="127" t="s">
+      <c r="R66" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="S66" s="128"/>
-      <c r="T66" s="128"/>
-      <c r="U66" s="128"/>
-      <c r="V66" s="128"/>
-      <c r="W66" s="128"/>
-      <c r="X66" s="128"/>
-      <c r="Y66" s="128"/>
-      <c r="Z66" s="128"/>
-      <c r="AA66" s="128"/>
-      <c r="AB66" s="128"/>
-      <c r="AC66" s="128"/>
-      <c r="AD66" s="128"/>
-      <c r="AE66" s="128"/>
-      <c r="AF66" s="128"/>
-      <c r="AG66" s="128"/>
-      <c r="AH66" s="128"/>
-      <c r="AI66" s="129"/>
+      <c r="S66" s="152"/>
+      <c r="T66" s="152"/>
+      <c r="U66" s="152"/>
+      <c r="V66" s="152"/>
+      <c r="W66" s="152"/>
+      <c r="X66" s="152"/>
+      <c r="Y66" s="152"/>
+      <c r="Z66" s="152"/>
+      <c r="AA66" s="152"/>
+      <c r="AB66" s="152"/>
+      <c r="AC66" s="152"/>
+      <c r="AD66" s="152"/>
+      <c r="AE66" s="152"/>
+      <c r="AF66" s="152"/>
+      <c r="AG66" s="152"/>
+      <c r="AH66" s="152"/>
+      <c r="AI66" s="153"/>
       <c r="AJ66" s="55"/>
       <c r="AK66" s="55"/>
       <c r="AL66" s="55"/>
@@ -13497,11 +13500,11 @@
       <c r="B67" s="86">
         <v>7</v>
       </c>
-      <c r="C67" s="124"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="126"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="150"/>
       <c r="H67" s="87"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
@@ -13512,24 +13515,24 @@
       <c r="O67" s="90"/>
       <c r="P67" s="90"/>
       <c r="Q67" s="90"/>
-      <c r="R67" s="127"/>
-      <c r="S67" s="128"/>
-      <c r="T67" s="128"/>
-      <c r="U67" s="128"/>
-      <c r="V67" s="128"/>
-      <c r="W67" s="128"/>
-      <c r="X67" s="128"/>
-      <c r="Y67" s="128"/>
-      <c r="Z67" s="128"/>
-      <c r="AA67" s="128"/>
-      <c r="AB67" s="128"/>
-      <c r="AC67" s="128"/>
-      <c r="AD67" s="128"/>
-      <c r="AE67" s="128"/>
-      <c r="AF67" s="128"/>
-      <c r="AG67" s="128"/>
-      <c r="AH67" s="128"/>
-      <c r="AI67" s="129"/>
+      <c r="R67" s="151"/>
+      <c r="S67" s="152"/>
+      <c r="T67" s="152"/>
+      <c r="U67" s="152"/>
+      <c r="V67" s="152"/>
+      <c r="W67" s="152"/>
+      <c r="X67" s="152"/>
+      <c r="Y67" s="152"/>
+      <c r="Z67" s="152"/>
+      <c r="AA67" s="152"/>
+      <c r="AB67" s="152"/>
+      <c r="AC67" s="152"/>
+      <c r="AD67" s="152"/>
+      <c r="AE67" s="152"/>
+      <c r="AF67" s="152"/>
+      <c r="AG67" s="152"/>
+      <c r="AH67" s="152"/>
+      <c r="AI67" s="153"/>
       <c r="AJ67" s="55"/>
       <c r="AK67" s="55"/>
       <c r="AL67" s="55"/>
@@ -13549,11 +13552,11 @@
       <c r="B68" s="97">
         <v>8</v>
       </c>
-      <c r="C68" s="124"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="126"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="150"/>
       <c r="H68" s="98"/>
       <c r="I68" s="99"/>
       <c r="J68" s="99"/>
@@ -13564,24 +13567,24 @@
       <c r="O68" s="99"/>
       <c r="P68" s="99"/>
       <c r="Q68" s="99"/>
-      <c r="R68" s="130"/>
-      <c r="S68" s="131"/>
-      <c r="T68" s="131"/>
-      <c r="U68" s="131"/>
-      <c r="V68" s="131"/>
-      <c r="W68" s="131"/>
-      <c r="X68" s="131"/>
-      <c r="Y68" s="131"/>
-      <c r="Z68" s="131"/>
-      <c r="AA68" s="131"/>
-      <c r="AB68" s="131"/>
-      <c r="AC68" s="131"/>
-      <c r="AD68" s="131"/>
-      <c r="AE68" s="131"/>
-      <c r="AF68" s="131"/>
-      <c r="AG68" s="131"/>
-      <c r="AH68" s="131"/>
-      <c r="AI68" s="132"/>
+      <c r="R68" s="154"/>
+      <c r="S68" s="155"/>
+      <c r="T68" s="155"/>
+      <c r="U68" s="155"/>
+      <c r="V68" s="155"/>
+      <c r="W68" s="155"/>
+      <c r="X68" s="155"/>
+      <c r="Y68" s="155"/>
+      <c r="Z68" s="155"/>
+      <c r="AA68" s="155"/>
+      <c r="AB68" s="155"/>
+      <c r="AC68" s="155"/>
+      <c r="AD68" s="155"/>
+      <c r="AE68" s="155"/>
+      <c r="AF68" s="155"/>
+      <c r="AG68" s="155"/>
+      <c r="AH68" s="155"/>
+      <c r="AI68" s="156"/>
       <c r="AJ68" s="55"/>
       <c r="AK68" s="55"/>
       <c r="AL68" s="55"/>
@@ -14829,37 +14832,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:V52"/>
-    <mergeCell ref="W52:AK52"/>
-    <mergeCell ref="AM2:AP3"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:V53"/>
-    <mergeCell ref="W53:AK53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:V54"/>
-    <mergeCell ref="W54:AK54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:V55"/>
-    <mergeCell ref="W55:AK55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:V56"/>
-    <mergeCell ref="W56:AK56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:V57"/>
-    <mergeCell ref="W57:AK57"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:Q60"/>
-    <mergeCell ref="R60:AI60"/>
-    <mergeCell ref="R61:AI61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="R62:AI62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="R63:AI63"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="R67:AI67"/>
     <mergeCell ref="C68:G68"/>
@@ -14876,6 +14848,37 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="R66:AI66"/>
     <mergeCell ref="C61:G61"/>
+    <mergeCell ref="R61:AI61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="R62:AI62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="R63:AI63"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:V57"/>
+    <mergeCell ref="W57:AK57"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="R60:AI60"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:V55"/>
+    <mergeCell ref="W55:AK55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:V56"/>
+    <mergeCell ref="W56:AK56"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:V53"/>
+    <mergeCell ref="W53:AK53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:V54"/>
+    <mergeCell ref="W54:AK54"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:V52"/>
+    <mergeCell ref="W52:AK52"/>
+    <mergeCell ref="AM2:AP3"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
@@ -14891,12 +14894,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AR72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AX61" sqref="AX61"/>
     </sheetView>
   </sheetViews>
@@ -14909,173 +14924,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="176" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176" t="s">
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="165" t="s">
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="166" t="s">
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="165" t="s">
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="167"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="127"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="133" t="str">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="157" t="str">
         <f>T2</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="175" t="str">
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="173" t="str">
         <f>Cover!C61</f>
         <v>UC_001</v>
       </c>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175" t="str">
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173" t="str">
         <f>Cover!H61</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="133" t="s">
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="132">
         <f>DATE(2016,2,3)</f>
         <v>42403</v>
       </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139">
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="132">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="140"/>
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="133"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="142"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="161"/>
+      <c r="AJ3" s="162"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="135"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -16745,22 +16760,22 @@
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
       <c r="G39" s="28"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="174"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="174"/>
-      <c r="V39" s="174"/>
-      <c r="W39" s="174"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="175"/>
+      <c r="T39" s="175"/>
+      <c r="U39" s="175"/>
+      <c r="V39" s="175"/>
+      <c r="W39" s="175"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="49"/>
       <c r="Z39" s="44"/>
@@ -16776,9 +16791,9 @@
       <c r="AJ39" s="28"/>
       <c r="AK39" s="28"/>
       <c r="AL39" s="28"/>
-      <c r="AM39" s="172"/>
-      <c r="AN39" s="172"/>
-      <c r="AO39" s="172"/>
+      <c r="AM39" s="176"/>
+      <c r="AN39" s="176"/>
+      <c r="AO39" s="176"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="23"/>
@@ -16791,22 +16806,22 @@
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="174"/>
-      <c r="L40" s="174"/>
-      <c r="M40" s="174"/>
-      <c r="N40" s="174"/>
-      <c r="O40" s="174"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
-      <c r="S40" s="174"/>
-      <c r="T40" s="174"/>
-      <c r="U40" s="174"/>
-      <c r="V40" s="174"/>
-      <c r="W40" s="174"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="175"/>
+      <c r="N40" s="175"/>
+      <c r="O40" s="175"/>
+      <c r="P40" s="175"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="175"/>
+      <c r="S40" s="175"/>
+      <c r="T40" s="175"/>
+      <c r="U40" s="175"/>
+      <c r="V40" s="175"/>
+      <c r="W40" s="175"/>
       <c r="X40" s="49"/>
       <c r="Y40" s="49"/>
       <c r="Z40" s="44"/>
@@ -16822,9 +16837,9 @@
       <c r="AJ40" s="28"/>
       <c r="AK40" s="28"/>
       <c r="AL40" s="28"/>
-      <c r="AM40" s="172"/>
-      <c r="AN40" s="172"/>
-      <c r="AO40" s="172"/>
+      <c r="AM40" s="176"/>
+      <c r="AN40" s="176"/>
+      <c r="AO40" s="176"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="23"/>
@@ -16929,33 +16944,33 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="173"/>
-      <c r="U43" s="173"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
-      <c r="X43" s="173"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="173"/>
-      <c r="AA43" s="173"/>
-      <c r="AB43" s="173"/>
-      <c r="AC43" s="173"/>
-      <c r="AD43" s="173"/>
-      <c r="AE43" s="173"/>
-      <c r="AF43" s="173"/>
-      <c r="AG43" s="173"/>
-      <c r="AH43" s="173"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="177"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="177"/>
+      <c r="S43" s="177"/>
+      <c r="T43" s="177"/>
+      <c r="U43" s="177"/>
+      <c r="V43" s="177"/>
+      <c r="W43" s="177"/>
+      <c r="X43" s="177"/>
+      <c r="Y43" s="177"/>
+      <c r="Z43" s="177"/>
+      <c r="AA43" s="177"/>
+      <c r="AB43" s="177"/>
+      <c r="AC43" s="177"/>
+      <c r="AD43" s="177"/>
+      <c r="AE43" s="177"/>
+      <c r="AF43" s="177"/>
+      <c r="AG43" s="177"/>
+      <c r="AH43" s="177"/>
       <c r="AI43" s="53"/>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="28"/>
@@ -16975,33 +16990,33 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-      <c r="O44" s="173"/>
-      <c r="P44" s="173"/>
-      <c r="Q44" s="173"/>
-      <c r="R44" s="173"/>
-      <c r="S44" s="173"/>
-      <c r="T44" s="173"/>
-      <c r="U44" s="173"/>
-      <c r="V44" s="173"/>
-      <c r="W44" s="173"/>
-      <c r="X44" s="173"/>
-      <c r="Y44" s="173"/>
-      <c r="Z44" s="173"/>
-      <c r="AA44" s="173"/>
-      <c r="AB44" s="173"/>
-      <c r="AC44" s="173"/>
-      <c r="AD44" s="173"/>
-      <c r="AE44" s="173"/>
-      <c r="AF44" s="173"/>
-      <c r="AG44" s="173"/>
-      <c r="AH44" s="173"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="177"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="177"/>
+      <c r="U44" s="177"/>
+      <c r="V44" s="177"/>
+      <c r="W44" s="177"/>
+      <c r="X44" s="177"/>
+      <c r="Y44" s="177"/>
+      <c r="Z44" s="177"/>
+      <c r="AA44" s="177"/>
+      <c r="AB44" s="177"/>
+      <c r="AC44" s="177"/>
+      <c r="AD44" s="177"/>
+      <c r="AE44" s="177"/>
+      <c r="AF44" s="177"/>
+      <c r="AG44" s="177"/>
+      <c r="AH44" s="177"/>
       <c r="AI44" s="28"/>
       <c r="AJ44" s="28"/>
       <c r="AK44" s="28"/>
@@ -18303,6 +18318,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AM39:AO40"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="L43:O44"/>
+    <mergeCell ref="P43:T44"/>
+    <mergeCell ref="U43:Y44"/>
+    <mergeCell ref="Z43:AD44"/>
+    <mergeCell ref="AE43:AH44"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="H39:K40"/>
+    <mergeCell ref="L39:O40"/>
+    <mergeCell ref="P39:S40"/>
+    <mergeCell ref="T39:W40"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
@@ -18315,18 +18342,6 @@
     <mergeCell ref="T1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="H39:K40"/>
-    <mergeCell ref="L39:O40"/>
-    <mergeCell ref="P39:S40"/>
-    <mergeCell ref="T39:W40"/>
-    <mergeCell ref="AM39:AO40"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="L43:O44"/>
-    <mergeCell ref="P43:T44"/>
-    <mergeCell ref="U43:Y44"/>
-    <mergeCell ref="Z43:AD44"/>
-    <mergeCell ref="AE43:AH44"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape"/>
@@ -18337,14 +18352,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AR97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
@@ -18357,170 +18372,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="176" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176" t="s">
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="165" t="s">
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="166" t="s">
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="165" t="s">
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="167"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="127"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="133" t="str">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="157" t="str">
         <f>T2</f>
         <v>Đọc tên</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="175" t="str">
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="173" t="str">
         <f>Cover!C62</f>
         <v>UC_002</v>
       </c>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175" t="str">
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173" t="str">
         <f>Cover!H62</f>
         <v>Đọc tên</v>
       </c>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="133" t="s">
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="132">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="140"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="133"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="142"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="161"/>
+      <c r="AJ3" s="162"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="135"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -19894,7 +19909,7 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="4"/>
-      <c r="B33" s="181" t="s">
+      <c r="B33" s="124" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="5"/>
@@ -20494,7 +20509,7 @@
     </row>
     <row r="46" spans="1:44">
       <c r="A46" s="4"/>
-      <c r="B46" s="181" t="s">
+      <c r="B46" s="124" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="5"/>
@@ -22911,176 +22926,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AR92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="3"/>
-    <col min="2" max="3" width="3.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="3.42578125" style="3"/>
+    <col min="1" max="44" width="3.28515625" style="3" customWidth="1"/>
+    <col min="45" max="16384" width="3.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="165" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="176" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176" t="s">
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="165" t="s">
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="166" t="s">
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="165" t="s">
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="167"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="127"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="177"/>
-      <c r="AL2" s="177"/>
-      <c r="AM2" s="177"/>
-      <c r="AN2" s="178"/>
-      <c r="AO2" s="177"/>
-      <c r="AP2" s="177"/>
-      <c r="AQ2" s="177"/>
-      <c r="AR2" s="178"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="179"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="178"/>
+      <c r="AR2" s="179"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="179"/>
-      <c r="AL3" s="179"/>
-      <c r="AM3" s="179"/>
-      <c r="AN3" s="180"/>
-      <c r="AO3" s="179"/>
-      <c r="AP3" s="179"/>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="180"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="161"/>
+      <c r="AJ3" s="162"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="181"/>
+      <c r="AO3" s="180"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="181"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>

--- a/doc/requirement/RFID_UseCase_v1.0.xlsx
+++ b/doc/requirement/RFID_UseCase_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8850" tabRatio="922" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeHistory" sheetId="1" r:id="rId1"/>
@@ -5373,75 +5373,6 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1882" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="3633" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="64" fillId="2" borderId="0" xfId="3633" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5487,6 +5418,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5517,19 +5460,76 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="1" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="2" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="9" xfId="3633" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10428,156 +10428,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="125" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="125" t="s">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="126" t="s">
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="167"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="125" t="s">
+      <c r="AJ1" s="167"/>
+      <c r="AK1" s="167"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="127"/>
+      <c r="AN1" s="167"/>
+      <c r="AO1" s="167"/>
+      <c r="AP1" s="168"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="164" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="157" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="132">
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="140">
         <f>DATE(2017,1,30)</f>
         <v>42765</v>
       </c>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="132">
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="141"/>
+      <c r="AM2" s="140">
         <f>DATE(2017,2,2)</f>
         <v>42768</v>
       </c>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="132"/>
-      <c r="AP2" s="133"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="141"/>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="134"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="135"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="143"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="54"/>
@@ -10715,181 +10715,181 @@
     </row>
     <row r="7" spans="1:42" ht="12.75" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="171"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="171"/>
-      <c r="AI7" s="171"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="171"/>
-      <c r="AL7" s="171"/>
-      <c r="AM7" s="171"/>
-      <c r="AN7" s="171"/>
-      <c r="AO7" s="171"/>
-      <c r="AP7" s="172"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="152"/>
+      <c r="AO7" s="152"/>
+      <c r="AP7" s="153"/>
     </row>
     <row r="8" spans="1:42" ht="12.75" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="171"/>
-      <c r="AG8" s="171"/>
-      <c r="AH8" s="171"/>
-      <c r="AI8" s="171"/>
-      <c r="AJ8" s="171"/>
-      <c r="AK8" s="171"/>
-      <c r="AL8" s="171"/>
-      <c r="AM8" s="171"/>
-      <c r="AN8" s="171"/>
-      <c r="AO8" s="171"/>
-      <c r="AP8" s="172"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="152"/>
+      <c r="AO8" s="152"/>
+      <c r="AP8" s="153"/>
     </row>
     <row r="9" spans="1:42" ht="12.75" customHeight="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="171"/>
-      <c r="T9" s="171"/>
-      <c r="U9" s="171"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="171"/>
-      <c r="AA9" s="171"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="171"/>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="171"/>
-      <c r="AL9" s="171"/>
-      <c r="AM9" s="171"/>
-      <c r="AN9" s="171"/>
-      <c r="AO9" s="171"/>
-      <c r="AP9" s="172"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="153"/>
     </row>
     <row r="10" spans="1:42" ht="12.75" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="171"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="171"/>
-      <c r="AA10" s="171"/>
-      <c r="AB10" s="171"/>
-      <c r="AC10" s="171"/>
-      <c r="AD10" s="171"/>
-      <c r="AE10" s="171"/>
-      <c r="AF10" s="171"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="171"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="171"/>
-      <c r="AL10" s="171"/>
-      <c r="AM10" s="171"/>
-      <c r="AN10" s="171"/>
-      <c r="AO10" s="171"/>
-      <c r="AP10" s="172"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="152"/>
+      <c r="AO10" s="152"/>
+      <c r="AP10" s="153"/>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="54"/>
@@ -12711,46 +12711,46 @@
       <c r="C52" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="128" t="s">
+      <c r="D52" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128" t="s">
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="128"/>
-      <c r="P52" s="128"/>
-      <c r="Q52" s="128"/>
-      <c r="R52" s="128"/>
-      <c r="S52" s="128"/>
-      <c r="T52" s="128"/>
-      <c r="U52" s="128"/>
-      <c r="V52" s="128"/>
-      <c r="W52" s="129" t="s">
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="169"/>
+      <c r="M52" s="169"/>
+      <c r="N52" s="169"/>
+      <c r="O52" s="169"/>
+      <c r="P52" s="169"/>
+      <c r="Q52" s="169"/>
+      <c r="R52" s="169"/>
+      <c r="S52" s="169"/>
+      <c r="T52" s="169"/>
+      <c r="U52" s="169"/>
+      <c r="V52" s="169"/>
+      <c r="W52" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="130"/>
-      <c r="Z52" s="130"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="130"/>
-      <c r="AD52" s="130"/>
-      <c r="AE52" s="130"/>
-      <c r="AF52" s="130"/>
-      <c r="AG52" s="130"/>
-      <c r="AH52" s="130"/>
-      <c r="AI52" s="130"/>
-      <c r="AJ52" s="130"/>
-      <c r="AK52" s="131"/>
+      <c r="X52" s="171"/>
+      <c r="Y52" s="171"/>
+      <c r="Z52" s="171"/>
+      <c r="AA52" s="171"/>
+      <c r="AB52" s="171"/>
+      <c r="AC52" s="171"/>
+      <c r="AD52" s="171"/>
+      <c r="AE52" s="171"/>
+      <c r="AF52" s="171"/>
+      <c r="AG52" s="171"/>
+      <c r="AH52" s="171"/>
+      <c r="AI52" s="171"/>
+      <c r="AJ52" s="171"/>
+      <c r="AK52" s="172"/>
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
@@ -12763,46 +12763,46 @@
       <c r="C53" s="80">
         <v>1</v>
       </c>
-      <c r="D53" s="136" t="s">
+      <c r="D53" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="137" t="s">
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="138"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="138"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="138"/>
-      <c r="P53" s="138"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="138"/>
-      <c r="S53" s="138"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="138"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="140" t="s">
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="164"/>
+      <c r="P53" s="164"/>
+      <c r="Q53" s="164"/>
+      <c r="R53" s="164"/>
+      <c r="S53" s="164"/>
+      <c r="T53" s="164"/>
+      <c r="U53" s="164"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="X53" s="141"/>
-      <c r="Y53" s="141"/>
-      <c r="Z53" s="141"/>
-      <c r="AA53" s="141"/>
-      <c r="AB53" s="141"/>
-      <c r="AC53" s="141"/>
-      <c r="AD53" s="141"/>
-      <c r="AE53" s="141"/>
-      <c r="AF53" s="141"/>
-      <c r="AG53" s="141"/>
-      <c r="AH53" s="141"/>
-      <c r="AI53" s="141"/>
-      <c r="AJ53" s="141"/>
-      <c r="AK53" s="142"/>
+      <c r="X53" s="160"/>
+      <c r="Y53" s="160"/>
+      <c r="Z53" s="160"/>
+      <c r="AA53" s="160"/>
+      <c r="AB53" s="160"/>
+      <c r="AC53" s="160"/>
+      <c r="AD53" s="160"/>
+      <c r="AE53" s="160"/>
+      <c r="AF53" s="160"/>
+      <c r="AG53" s="160"/>
+      <c r="AH53" s="160"/>
+      <c r="AI53" s="160"/>
+      <c r="AJ53" s="160"/>
+      <c r="AK53" s="161"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
@@ -12815,46 +12815,46 @@
       <c r="C54" s="80">
         <v>2</v>
       </c>
-      <c r="D54" s="143" t="s">
+      <c r="D54" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="137" t="s">
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="138"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="138"/>
-      <c r="L54" s="138"/>
-      <c r="M54" s="138"/>
-      <c r="N54" s="138"/>
-      <c r="O54" s="138"/>
-      <c r="P54" s="138"/>
-      <c r="Q54" s="138"/>
-      <c r="R54" s="138"/>
-      <c r="S54" s="138"/>
-      <c r="T54" s="138"/>
-      <c r="U54" s="138"/>
-      <c r="V54" s="139"/>
-      <c r="W54" s="140" t="s">
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="164"/>
+      <c r="M54" s="164"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="164"/>
+      <c r="P54" s="164"/>
+      <c r="Q54" s="164"/>
+      <c r="R54" s="164"/>
+      <c r="S54" s="164"/>
+      <c r="T54" s="164"/>
+      <c r="U54" s="164"/>
+      <c r="V54" s="165"/>
+      <c r="W54" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="X54" s="141"/>
-      <c r="Y54" s="141"/>
-      <c r="Z54" s="141"/>
-      <c r="AA54" s="141"/>
-      <c r="AB54" s="141"/>
-      <c r="AC54" s="141"/>
-      <c r="AD54" s="141"/>
-      <c r="AE54" s="141"/>
-      <c r="AF54" s="141"/>
-      <c r="AG54" s="141"/>
-      <c r="AH54" s="141"/>
-      <c r="AI54" s="141"/>
-      <c r="AJ54" s="141"/>
-      <c r="AK54" s="142"/>
+      <c r="X54" s="160"/>
+      <c r="Y54" s="160"/>
+      <c r="Z54" s="160"/>
+      <c r="AA54" s="160"/>
+      <c r="AB54" s="160"/>
+      <c r="AC54" s="160"/>
+      <c r="AD54" s="160"/>
+      <c r="AE54" s="160"/>
+      <c r="AF54" s="160"/>
+      <c r="AG54" s="160"/>
+      <c r="AH54" s="160"/>
+      <c r="AI54" s="160"/>
+      <c r="AJ54" s="160"/>
+      <c r="AK54" s="161"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
       <c r="AN54" s="5"/>
@@ -12867,46 +12867,46 @@
       <c r="C55" s="80">
         <v>3</v>
       </c>
-      <c r="D55" s="143" t="s">
+      <c r="D55" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="137" t="s">
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="138"/>
-      <c r="M55" s="138"/>
-      <c r="N55" s="138"/>
-      <c r="O55" s="138"/>
-      <c r="P55" s="138"/>
-      <c r="Q55" s="138"/>
-      <c r="R55" s="138"/>
-      <c r="S55" s="138"/>
-      <c r="T55" s="138"/>
-      <c r="U55" s="138"/>
-      <c r="V55" s="139"/>
-      <c r="W55" s="140" t="s">
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="164"/>
+      <c r="L55" s="164"/>
+      <c r="M55" s="164"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="164"/>
+      <c r="P55" s="164"/>
+      <c r="Q55" s="164"/>
+      <c r="R55" s="164"/>
+      <c r="S55" s="164"/>
+      <c r="T55" s="164"/>
+      <c r="U55" s="164"/>
+      <c r="V55" s="165"/>
+      <c r="W55" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="X55" s="141"/>
-      <c r="Y55" s="141"/>
-      <c r="Z55" s="141"/>
-      <c r="AA55" s="141"/>
-      <c r="AB55" s="141"/>
-      <c r="AC55" s="141"/>
-      <c r="AD55" s="141"/>
-      <c r="AE55" s="141"/>
-      <c r="AF55" s="141"/>
-      <c r="AG55" s="141"/>
-      <c r="AH55" s="141"/>
-      <c r="AI55" s="141"/>
-      <c r="AJ55" s="141"/>
-      <c r="AK55" s="142"/>
+      <c r="X55" s="160"/>
+      <c r="Y55" s="160"/>
+      <c r="Z55" s="160"/>
+      <c r="AA55" s="160"/>
+      <c r="AB55" s="160"/>
+      <c r="AC55" s="160"/>
+      <c r="AD55" s="160"/>
+      <c r="AE55" s="160"/>
+      <c r="AF55" s="160"/>
+      <c r="AG55" s="160"/>
+      <c r="AH55" s="160"/>
+      <c r="AI55" s="160"/>
+      <c r="AJ55" s="160"/>
+      <c r="AK55" s="161"/>
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -12919,46 +12919,46 @@
       <c r="C56" s="80">
         <v>4</v>
       </c>
-      <c r="D56" s="143" t="s">
+      <c r="D56" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="137" t="s">
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="138"/>
-      <c r="M56" s="138"/>
-      <c r="N56" s="138"/>
-      <c r="O56" s="138"/>
-      <c r="P56" s="138"/>
-      <c r="Q56" s="138"/>
-      <c r="R56" s="138"/>
-      <c r="S56" s="138"/>
-      <c r="T56" s="138"/>
-      <c r="U56" s="138"/>
-      <c r="V56" s="139"/>
-      <c r="W56" s="140" t="s">
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="164"/>
+      <c r="M56" s="164"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="164"/>
+      <c r="P56" s="164"/>
+      <c r="Q56" s="164"/>
+      <c r="R56" s="164"/>
+      <c r="S56" s="164"/>
+      <c r="T56" s="164"/>
+      <c r="U56" s="164"/>
+      <c r="V56" s="165"/>
+      <c r="W56" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="X56" s="141"/>
-      <c r="Y56" s="141"/>
-      <c r="Z56" s="141"/>
-      <c r="AA56" s="141"/>
-      <c r="AB56" s="141"/>
-      <c r="AC56" s="141"/>
-      <c r="AD56" s="141"/>
-      <c r="AE56" s="141"/>
-      <c r="AF56" s="141"/>
-      <c r="AG56" s="141"/>
-      <c r="AH56" s="141"/>
-      <c r="AI56" s="141"/>
-      <c r="AJ56" s="141"/>
-      <c r="AK56" s="142"/>
+      <c r="X56" s="160"/>
+      <c r="Y56" s="160"/>
+      <c r="Z56" s="160"/>
+      <c r="AA56" s="160"/>
+      <c r="AB56" s="160"/>
+      <c r="AC56" s="160"/>
+      <c r="AD56" s="160"/>
+      <c r="AE56" s="160"/>
+      <c r="AF56" s="160"/>
+      <c r="AG56" s="160"/>
+      <c r="AH56" s="160"/>
+      <c r="AI56" s="160"/>
+      <c r="AJ56" s="160"/>
+      <c r="AK56" s="161"/>
       <c r="AL56" s="5"/>
       <c r="AM56" s="5"/>
       <c r="AN56" s="5"/>
@@ -12971,46 +12971,46 @@
       <c r="C57" s="80">
         <v>5</v>
       </c>
-      <c r="D57" s="143" t="s">
+      <c r="D57" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="140" t="s">
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="141"/>
-      <c r="J57" s="141"/>
-      <c r="K57" s="141"/>
-      <c r="L57" s="141"/>
-      <c r="M57" s="141"/>
-      <c r="N57" s="141"/>
-      <c r="O57" s="141"/>
-      <c r="P57" s="141"/>
-      <c r="Q57" s="141"/>
-      <c r="R57" s="141"/>
-      <c r="S57" s="141"/>
-      <c r="T57" s="141"/>
-      <c r="U57" s="141"/>
-      <c r="V57" s="142"/>
-      <c r="W57" s="140" t="s">
+      <c r="I57" s="160"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="160"/>
+      <c r="L57" s="160"/>
+      <c r="M57" s="160"/>
+      <c r="N57" s="160"/>
+      <c r="O57" s="160"/>
+      <c r="P57" s="160"/>
+      <c r="Q57" s="160"/>
+      <c r="R57" s="160"/>
+      <c r="S57" s="160"/>
+      <c r="T57" s="160"/>
+      <c r="U57" s="160"/>
+      <c r="V57" s="161"/>
+      <c r="W57" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="X57" s="141"/>
-      <c r="Y57" s="141"/>
-      <c r="Z57" s="141"/>
-      <c r="AA57" s="141"/>
-      <c r="AB57" s="141"/>
-      <c r="AC57" s="141"/>
-      <c r="AD57" s="141"/>
-      <c r="AE57" s="141"/>
-      <c r="AF57" s="141"/>
-      <c r="AG57" s="141"/>
-      <c r="AH57" s="141"/>
-      <c r="AI57" s="141"/>
-      <c r="AJ57" s="141"/>
-      <c r="AK57" s="142"/>
+      <c r="X57" s="160"/>
+      <c r="Y57" s="160"/>
+      <c r="Z57" s="160"/>
+      <c r="AA57" s="160"/>
+      <c r="AB57" s="160"/>
+      <c r="AC57" s="160"/>
+      <c r="AD57" s="160"/>
+      <c r="AE57" s="160"/>
+      <c r="AF57" s="160"/>
+      <c r="AG57" s="160"/>
+      <c r="AH57" s="160"/>
+      <c r="AI57" s="160"/>
+      <c r="AJ57" s="160"/>
+      <c r="AK57" s="161"/>
       <c r="AL57" s="5"/>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
@@ -13112,45 +13112,45 @@
       <c r="B60" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="144" t="s">
+      <c r="C60" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144" t="s">
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="144"/>
-      <c r="N60" s="144"/>
-      <c r="O60" s="144"/>
-      <c r="P60" s="144"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="144" t="s">
+      <c r="I60" s="162"/>
+      <c r="J60" s="162"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="162"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="162"/>
+      <c r="Q60" s="162"/>
+      <c r="R60" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="S60" s="144"/>
-      <c r="T60" s="144"/>
-      <c r="U60" s="144"/>
-      <c r="V60" s="144"/>
-      <c r="W60" s="144"/>
-      <c r="X60" s="144"/>
-      <c r="Y60" s="144"/>
-      <c r="Z60" s="144"/>
-      <c r="AA60" s="144"/>
-      <c r="AB60" s="144"/>
-      <c r="AC60" s="144"/>
-      <c r="AD60" s="144"/>
-      <c r="AE60" s="144"/>
-      <c r="AF60" s="144"/>
-      <c r="AG60" s="144"/>
-      <c r="AH60" s="144"/>
-      <c r="AI60" s="144"/>
+      <c r="S60" s="162"/>
+      <c r="T60" s="162"/>
+      <c r="U60" s="162"/>
+      <c r="V60" s="162"/>
+      <c r="W60" s="162"/>
+      <c r="X60" s="162"/>
+      <c r="Y60" s="162"/>
+      <c r="Z60" s="162"/>
+      <c r="AA60" s="162"/>
+      <c r="AB60" s="162"/>
+      <c r="AC60" s="162"/>
+      <c r="AD60" s="162"/>
+      <c r="AE60" s="162"/>
+      <c r="AF60" s="162"/>
+      <c r="AG60" s="162"/>
+      <c r="AH60" s="162"/>
+      <c r="AI60" s="162"/>
       <c r="AJ60" s="64"/>
       <c r="AK60" s="64"/>
       <c r="AL60" s="64"/>
@@ -13164,13 +13164,13 @@
       <c r="B61" s="83">
         <v>1</v>
       </c>
-      <c r="C61" s="148" t="s">
+      <c r="C61" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="150"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="127"/>
       <c r="H61" s="84" t="s">
         <v>47</v>
       </c>
@@ -13183,26 +13183,26 @@
       <c r="O61" s="88"/>
       <c r="P61" s="88"/>
       <c r="Q61" s="88"/>
-      <c r="R61" s="145" t="s">
+      <c r="R61" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="S61" s="146"/>
-      <c r="T61" s="146"/>
-      <c r="U61" s="146"/>
-      <c r="V61" s="146"/>
-      <c r="W61" s="146"/>
-      <c r="X61" s="146"/>
-      <c r="Y61" s="146"/>
-      <c r="Z61" s="146"/>
-      <c r="AA61" s="146"/>
-      <c r="AB61" s="146"/>
-      <c r="AC61" s="146"/>
-      <c r="AD61" s="146"/>
-      <c r="AE61" s="146"/>
-      <c r="AF61" s="146"/>
-      <c r="AG61" s="146"/>
-      <c r="AH61" s="146"/>
-      <c r="AI61" s="147"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="155"/>
+      <c r="U61" s="155"/>
+      <c r="V61" s="155"/>
+      <c r="W61" s="155"/>
+      <c r="X61" s="155"/>
+      <c r="Y61" s="155"/>
+      <c r="Z61" s="155"/>
+      <c r="AA61" s="155"/>
+      <c r="AB61" s="155"/>
+      <c r="AC61" s="155"/>
+      <c r="AD61" s="155"/>
+      <c r="AE61" s="155"/>
+      <c r="AF61" s="155"/>
+      <c r="AG61" s="155"/>
+      <c r="AH61" s="155"/>
+      <c r="AI61" s="156"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
       <c r="AL61" s="5"/>
@@ -13216,13 +13216,13 @@
       <c r="B62" s="86">
         <v>2</v>
       </c>
-      <c r="C62" s="148" t="s">
+      <c r="C62" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="150"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="127"/>
       <c r="H62" s="87" t="s">
         <v>50</v>
       </c>
@@ -13235,26 +13235,26 @@
       <c r="O62" s="90"/>
       <c r="P62" s="90"/>
       <c r="Q62" s="90"/>
-      <c r="R62" s="151" t="s">
+      <c r="R62" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="S62" s="152"/>
-      <c r="T62" s="152"/>
-      <c r="U62" s="152"/>
-      <c r="V62" s="152"/>
-      <c r="W62" s="152"/>
-      <c r="X62" s="152"/>
-      <c r="Y62" s="152"/>
-      <c r="Z62" s="152"/>
-      <c r="AA62" s="152"/>
-      <c r="AB62" s="152"/>
-      <c r="AC62" s="152"/>
-      <c r="AD62" s="152"/>
-      <c r="AE62" s="152"/>
-      <c r="AF62" s="152"/>
-      <c r="AG62" s="152"/>
-      <c r="AH62" s="152"/>
-      <c r="AI62" s="153"/>
+      <c r="S62" s="129"/>
+      <c r="T62" s="129"/>
+      <c r="U62" s="129"/>
+      <c r="V62" s="129"/>
+      <c r="W62" s="129"/>
+      <c r="X62" s="129"/>
+      <c r="Y62" s="129"/>
+      <c r="Z62" s="129"/>
+      <c r="AA62" s="129"/>
+      <c r="AB62" s="129"/>
+      <c r="AC62" s="129"/>
+      <c r="AD62" s="129"/>
+      <c r="AE62" s="129"/>
+      <c r="AF62" s="129"/>
+      <c r="AG62" s="129"/>
+      <c r="AH62" s="129"/>
+      <c r="AI62" s="130"/>
       <c r="AJ62" s="55"/>
       <c r="AK62" s="55"/>
       <c r="AL62" s="55"/>
@@ -13268,13 +13268,13 @@
       <c r="B63" s="86">
         <v>3</v>
       </c>
-      <c r="C63" s="148" t="s">
+      <c r="C63" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="149"/>
-      <c r="G63" s="150"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="127"/>
       <c r="H63" s="87" t="s">
         <v>53</v>
       </c>
@@ -13287,26 +13287,26 @@
       <c r="O63" s="90"/>
       <c r="P63" s="90"/>
       <c r="Q63" s="90"/>
-      <c r="R63" s="151" t="s">
+      <c r="R63" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="152"/>
-      <c r="T63" s="152"/>
-      <c r="U63" s="152"/>
-      <c r="V63" s="152"/>
-      <c r="W63" s="152"/>
-      <c r="X63" s="152"/>
-      <c r="Y63" s="152"/>
-      <c r="Z63" s="152"/>
-      <c r="AA63" s="152"/>
-      <c r="AB63" s="152"/>
-      <c r="AC63" s="152"/>
-      <c r="AD63" s="152"/>
-      <c r="AE63" s="152"/>
-      <c r="AF63" s="152"/>
-      <c r="AG63" s="152"/>
-      <c r="AH63" s="152"/>
-      <c r="AI63" s="153"/>
+      <c r="S63" s="129"/>
+      <c r="T63" s="129"/>
+      <c r="U63" s="129"/>
+      <c r="V63" s="129"/>
+      <c r="W63" s="129"/>
+      <c r="X63" s="129"/>
+      <c r="Y63" s="129"/>
+      <c r="Z63" s="129"/>
+      <c r="AA63" s="129"/>
+      <c r="AB63" s="129"/>
+      <c r="AC63" s="129"/>
+      <c r="AD63" s="129"/>
+      <c r="AE63" s="129"/>
+      <c r="AF63" s="129"/>
+      <c r="AG63" s="129"/>
+      <c r="AH63" s="129"/>
+      <c r="AI63" s="130"/>
       <c r="AJ63" s="55"/>
       <c r="AK63" s="55"/>
       <c r="AL63" s="55"/>
@@ -13326,13 +13326,13 @@
       <c r="B64" s="86">
         <v>4</v>
       </c>
-      <c r="C64" s="148" t="s">
+      <c r="C64" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
-      <c r="F64" s="149"/>
-      <c r="G64" s="150"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="127"/>
       <c r="H64" s="87" t="s">
         <v>56</v>
       </c>
@@ -13345,26 +13345,26 @@
       <c r="O64" s="90"/>
       <c r="P64" s="90"/>
       <c r="Q64" s="90"/>
-      <c r="R64" s="151" t="s">
+      <c r="R64" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="S64" s="152"/>
-      <c r="T64" s="152"/>
-      <c r="U64" s="152"/>
-      <c r="V64" s="152"/>
-      <c r="W64" s="152"/>
-      <c r="X64" s="152"/>
-      <c r="Y64" s="152"/>
-      <c r="Z64" s="152"/>
-      <c r="AA64" s="152"/>
-      <c r="AB64" s="152"/>
-      <c r="AC64" s="152"/>
-      <c r="AD64" s="152"/>
-      <c r="AE64" s="152"/>
-      <c r="AF64" s="152"/>
-      <c r="AG64" s="152"/>
-      <c r="AH64" s="152"/>
-      <c r="AI64" s="153"/>
+      <c r="S64" s="129"/>
+      <c r="T64" s="129"/>
+      <c r="U64" s="129"/>
+      <c r="V64" s="129"/>
+      <c r="W64" s="129"/>
+      <c r="X64" s="129"/>
+      <c r="Y64" s="129"/>
+      <c r="Z64" s="129"/>
+      <c r="AA64" s="129"/>
+      <c r="AB64" s="129"/>
+      <c r="AC64" s="129"/>
+      <c r="AD64" s="129"/>
+      <c r="AE64" s="129"/>
+      <c r="AF64" s="129"/>
+      <c r="AG64" s="129"/>
+      <c r="AH64" s="129"/>
+      <c r="AI64" s="130"/>
       <c r="AJ64" s="55"/>
       <c r="AK64" s="55"/>
       <c r="AL64" s="55"/>
@@ -13384,13 +13384,13 @@
       <c r="B65" s="86">
         <v>5</v>
       </c>
-      <c r="C65" s="148" t="s">
+      <c r="C65" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="149"/>
-      <c r="G65" s="150"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="127"/>
       <c r="H65" s="87" t="s">
         <v>59</v>
       </c>
@@ -13403,26 +13403,26 @@
       <c r="O65" s="90"/>
       <c r="P65" s="90"/>
       <c r="Q65" s="90"/>
-      <c r="R65" s="151" t="s">
+      <c r="R65" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="S65" s="152"/>
-      <c r="T65" s="152"/>
-      <c r="U65" s="152"/>
-      <c r="V65" s="152"/>
-      <c r="W65" s="152"/>
-      <c r="X65" s="152"/>
-      <c r="Y65" s="152"/>
-      <c r="Z65" s="152"/>
-      <c r="AA65" s="152"/>
-      <c r="AB65" s="152"/>
-      <c r="AC65" s="152"/>
-      <c r="AD65" s="152"/>
-      <c r="AE65" s="152"/>
-      <c r="AF65" s="152"/>
-      <c r="AG65" s="152"/>
-      <c r="AH65" s="152"/>
-      <c r="AI65" s="153"/>
+      <c r="S65" s="129"/>
+      <c r="T65" s="129"/>
+      <c r="U65" s="129"/>
+      <c r="V65" s="129"/>
+      <c r="W65" s="129"/>
+      <c r="X65" s="129"/>
+      <c r="Y65" s="129"/>
+      <c r="Z65" s="129"/>
+      <c r="AA65" s="129"/>
+      <c r="AB65" s="129"/>
+      <c r="AC65" s="129"/>
+      <c r="AD65" s="129"/>
+      <c r="AE65" s="129"/>
+      <c r="AF65" s="129"/>
+      <c r="AG65" s="129"/>
+      <c r="AH65" s="129"/>
+      <c r="AI65" s="130"/>
       <c r="AJ65" s="55"/>
       <c r="AK65" s="55"/>
       <c r="AL65" s="55"/>
@@ -13442,13 +13442,13 @@
       <c r="B66" s="86">
         <v>6</v>
       </c>
-      <c r="C66" s="148" t="s">
+      <c r="C66" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="149"/>
-      <c r="G66" s="150"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="127"/>
       <c r="H66" s="87" t="s">
         <v>62</v>
       </c>
@@ -13461,26 +13461,26 @@
       <c r="O66" s="90"/>
       <c r="P66" s="90"/>
       <c r="Q66" s="90"/>
-      <c r="R66" s="151" t="s">
+      <c r="R66" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="S66" s="152"/>
-      <c r="T66" s="152"/>
-      <c r="U66" s="152"/>
-      <c r="V66" s="152"/>
-      <c r="W66" s="152"/>
-      <c r="X66" s="152"/>
-      <c r="Y66" s="152"/>
-      <c r="Z66" s="152"/>
-      <c r="AA66" s="152"/>
-      <c r="AB66" s="152"/>
-      <c r="AC66" s="152"/>
-      <c r="AD66" s="152"/>
-      <c r="AE66" s="152"/>
-      <c r="AF66" s="152"/>
-      <c r="AG66" s="152"/>
-      <c r="AH66" s="152"/>
-      <c r="AI66" s="153"/>
+      <c r="S66" s="129"/>
+      <c r="T66" s="129"/>
+      <c r="U66" s="129"/>
+      <c r="V66" s="129"/>
+      <c r="W66" s="129"/>
+      <c r="X66" s="129"/>
+      <c r="Y66" s="129"/>
+      <c r="Z66" s="129"/>
+      <c r="AA66" s="129"/>
+      <c r="AB66" s="129"/>
+      <c r="AC66" s="129"/>
+      <c r="AD66" s="129"/>
+      <c r="AE66" s="129"/>
+      <c r="AF66" s="129"/>
+      <c r="AG66" s="129"/>
+      <c r="AH66" s="129"/>
+      <c r="AI66" s="130"/>
       <c r="AJ66" s="55"/>
       <c r="AK66" s="55"/>
       <c r="AL66" s="55"/>
@@ -13500,11 +13500,11 @@
       <c r="B67" s="86">
         <v>7</v>
       </c>
-      <c r="C67" s="148"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="150"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="127"/>
       <c r="H67" s="87"/>
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
@@ -13515,24 +13515,24 @@
       <c r="O67" s="90"/>
       <c r="P67" s="90"/>
       <c r="Q67" s="90"/>
-      <c r="R67" s="151"/>
-      <c r="S67" s="152"/>
-      <c r="T67" s="152"/>
-      <c r="U67" s="152"/>
-      <c r="V67" s="152"/>
-      <c r="W67" s="152"/>
-      <c r="X67" s="152"/>
-      <c r="Y67" s="152"/>
-      <c r="Z67" s="152"/>
-      <c r="AA67" s="152"/>
-      <c r="AB67" s="152"/>
-      <c r="AC67" s="152"/>
-      <c r="AD67" s="152"/>
-      <c r="AE67" s="152"/>
-      <c r="AF67" s="152"/>
-      <c r="AG67" s="152"/>
-      <c r="AH67" s="152"/>
-      <c r="AI67" s="153"/>
+      <c r="R67" s="128"/>
+      <c r="S67" s="129"/>
+      <c r="T67" s="129"/>
+      <c r="U67" s="129"/>
+      <c r="V67" s="129"/>
+      <c r="W67" s="129"/>
+      <c r="X67" s="129"/>
+      <c r="Y67" s="129"/>
+      <c r="Z67" s="129"/>
+      <c r="AA67" s="129"/>
+      <c r="AB67" s="129"/>
+      <c r="AC67" s="129"/>
+      <c r="AD67" s="129"/>
+      <c r="AE67" s="129"/>
+      <c r="AF67" s="129"/>
+      <c r="AG67" s="129"/>
+      <c r="AH67" s="129"/>
+      <c r="AI67" s="130"/>
       <c r="AJ67" s="55"/>
       <c r="AK67" s="55"/>
       <c r="AL67" s="55"/>
@@ -13552,11 +13552,11 @@
       <c r="B68" s="97">
         <v>8</v>
       </c>
-      <c r="C68" s="148"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
-      <c r="F68" s="149"/>
-      <c r="G68" s="150"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="127"/>
       <c r="H68" s="98"/>
       <c r="I68" s="99"/>
       <c r="J68" s="99"/>
@@ -13567,24 +13567,24 @@
       <c r="O68" s="99"/>
       <c r="P68" s="99"/>
       <c r="Q68" s="99"/>
-      <c r="R68" s="154"/>
-      <c r="S68" s="155"/>
-      <c r="T68" s="155"/>
-      <c r="U68" s="155"/>
-      <c r="V68" s="155"/>
-      <c r="W68" s="155"/>
-      <c r="X68" s="155"/>
-      <c r="Y68" s="155"/>
-      <c r="Z68" s="155"/>
-      <c r="AA68" s="155"/>
-      <c r="AB68" s="155"/>
-      <c r="AC68" s="155"/>
-      <c r="AD68" s="155"/>
-      <c r="AE68" s="155"/>
-      <c r="AF68" s="155"/>
-      <c r="AG68" s="155"/>
-      <c r="AH68" s="155"/>
-      <c r="AI68" s="156"/>
+      <c r="R68" s="131"/>
+      <c r="S68" s="132"/>
+      <c r="T68" s="132"/>
+      <c r="U68" s="132"/>
+      <c r="V68" s="132"/>
+      <c r="W68" s="132"/>
+      <c r="X68" s="132"/>
+      <c r="Y68" s="132"/>
+      <c r="Z68" s="132"/>
+      <c r="AA68" s="132"/>
+      <c r="AB68" s="132"/>
+      <c r="AC68" s="132"/>
+      <c r="AD68" s="132"/>
+      <c r="AE68" s="132"/>
+      <c r="AF68" s="132"/>
+      <c r="AG68" s="132"/>
+      <c r="AH68" s="132"/>
+      <c r="AI68" s="133"/>
       <c r="AJ68" s="55"/>
       <c r="AK68" s="55"/>
       <c r="AL68" s="55"/>
@@ -14832,6 +14832,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:V52"/>
+    <mergeCell ref="W52:AK52"/>
+    <mergeCell ref="AM2:AP3"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:V53"/>
+    <mergeCell ref="W53:AK53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:V54"/>
+    <mergeCell ref="W54:AK54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:V55"/>
+    <mergeCell ref="W55:AK55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:V56"/>
+    <mergeCell ref="W56:AK56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:V57"/>
+    <mergeCell ref="W57:AK57"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="R60:AI60"/>
+    <mergeCell ref="R61:AI61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="R62:AI62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="R63:AI63"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="R67:AI67"/>
     <mergeCell ref="C68:G68"/>
@@ -14848,37 +14879,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="R66:AI66"/>
     <mergeCell ref="C61:G61"/>
-    <mergeCell ref="R61:AI61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="R62:AI62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="R63:AI63"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:V57"/>
-    <mergeCell ref="W57:AK57"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:Q60"/>
-    <mergeCell ref="R60:AI60"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:V55"/>
-    <mergeCell ref="W55:AK55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:V56"/>
-    <mergeCell ref="W56:AK56"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:V53"/>
-    <mergeCell ref="W53:AK53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:V54"/>
-    <mergeCell ref="W54:AK54"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:V52"/>
-    <mergeCell ref="W52:AK52"/>
-    <mergeCell ref="AM2:AP3"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
@@ -14924,173 +14924,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="125" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="174" t="s">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174" t="s">
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="125" t="s">
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="126" t="s">
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="167"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="125" t="s">
+      <c r="AL1" s="167"/>
+      <c r="AM1" s="167"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="127"/>
+      <c r="AP1" s="167"/>
+      <c r="AQ1" s="167"/>
+      <c r="AR1" s="168"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="157" t="str">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="134" t="str">
         <f>T2</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="173" t="str">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="176" t="str">
         <f>Cover!C61</f>
         <v>UC_001</v>
       </c>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173" t="str">
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176" t="str">
         <f>Cover!H61</f>
         <v>Đăng kí thẻ</v>
       </c>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="157" t="s">
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="132">
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
         <f>DATE(2016,2,3)</f>
         <v>42403</v>
       </c>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="132">
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AP2" s="132"/>
-      <c r="AQ2" s="132"/>
-      <c r="AR2" s="133"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="141"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="135"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="143"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -16791,9 +16791,9 @@
       <c r="AJ39" s="28"/>
       <c r="AK39" s="28"/>
       <c r="AL39" s="28"/>
-      <c r="AM39" s="176"/>
-      <c r="AN39" s="176"/>
-      <c r="AO39" s="176"/>
+      <c r="AM39" s="173"/>
+      <c r="AN39" s="173"/>
+      <c r="AO39" s="173"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="23"/>
@@ -16837,9 +16837,9 @@
       <c r="AJ40" s="28"/>
       <c r="AK40" s="28"/>
       <c r="AL40" s="28"/>
-      <c r="AM40" s="176"/>
-      <c r="AN40" s="176"/>
-      <c r="AO40" s="176"/>
+      <c r="AM40" s="173"/>
+      <c r="AN40" s="173"/>
+      <c r="AO40" s="173"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="23"/>
@@ -16944,33 +16944,33 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="177"/>
-      <c r="L43" s="177"/>
-      <c r="M43" s="177"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="177"/>
-      <c r="P43" s="177"/>
-      <c r="Q43" s="177"/>
-      <c r="R43" s="177"/>
-      <c r="S43" s="177"/>
-      <c r="T43" s="177"/>
-      <c r="U43" s="177"/>
-      <c r="V43" s="177"/>
-      <c r="W43" s="177"/>
-      <c r="X43" s="177"/>
-      <c r="Y43" s="177"/>
-      <c r="Z43" s="177"/>
-      <c r="AA43" s="177"/>
-      <c r="AB43" s="177"/>
-      <c r="AC43" s="177"/>
-      <c r="AD43" s="177"/>
-      <c r="AE43" s="177"/>
-      <c r="AF43" s="177"/>
-      <c r="AG43" s="177"/>
-      <c r="AH43" s="177"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="174"/>
+      <c r="N43" s="174"/>
+      <c r="O43" s="174"/>
+      <c r="P43" s="174"/>
+      <c r="Q43" s="174"/>
+      <c r="R43" s="174"/>
+      <c r="S43" s="174"/>
+      <c r="T43" s="174"/>
+      <c r="U43" s="174"/>
+      <c r="V43" s="174"/>
+      <c r="W43" s="174"/>
+      <c r="X43" s="174"/>
+      <c r="Y43" s="174"/>
+      <c r="Z43" s="174"/>
+      <c r="AA43" s="174"/>
+      <c r="AB43" s="174"/>
+      <c r="AC43" s="174"/>
+      <c r="AD43" s="174"/>
+      <c r="AE43" s="174"/>
+      <c r="AF43" s="174"/>
+      <c r="AG43" s="174"/>
+      <c r="AH43" s="174"/>
       <c r="AI43" s="53"/>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="28"/>
@@ -16990,33 +16990,33 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="177"/>
-      <c r="K44" s="177"/>
-      <c r="L44" s="177"/>
-      <c r="M44" s="177"/>
-      <c r="N44" s="177"/>
-      <c r="O44" s="177"/>
-      <c r="P44" s="177"/>
-      <c r="Q44" s="177"/>
-      <c r="R44" s="177"/>
-      <c r="S44" s="177"/>
-      <c r="T44" s="177"/>
-      <c r="U44" s="177"/>
-      <c r="V44" s="177"/>
-      <c r="W44" s="177"/>
-      <c r="X44" s="177"/>
-      <c r="Y44" s="177"/>
-      <c r="Z44" s="177"/>
-      <c r="AA44" s="177"/>
-      <c r="AB44" s="177"/>
-      <c r="AC44" s="177"/>
-      <c r="AD44" s="177"/>
-      <c r="AE44" s="177"/>
-      <c r="AF44" s="177"/>
-      <c r="AG44" s="177"/>
-      <c r="AH44" s="177"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="174"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="174"/>
+      <c r="Q44" s="174"/>
+      <c r="R44" s="174"/>
+      <c r="S44" s="174"/>
+      <c r="T44" s="174"/>
+      <c r="U44" s="174"/>
+      <c r="V44" s="174"/>
+      <c r="W44" s="174"/>
+      <c r="X44" s="174"/>
+      <c r="Y44" s="174"/>
+      <c r="Z44" s="174"/>
+      <c r="AA44" s="174"/>
+      <c r="AB44" s="174"/>
+      <c r="AC44" s="174"/>
+      <c r="AD44" s="174"/>
+      <c r="AE44" s="174"/>
+      <c r="AF44" s="174"/>
+      <c r="AG44" s="174"/>
+      <c r="AH44" s="174"/>
       <c r="AI44" s="28"/>
       <c r="AJ44" s="28"/>
       <c r="AK44" s="28"/>
@@ -18318,18 +18318,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AM39:AO40"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="L43:O44"/>
-    <mergeCell ref="P43:T44"/>
-    <mergeCell ref="U43:Y44"/>
-    <mergeCell ref="Z43:AD44"/>
-    <mergeCell ref="AE43:AH44"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="H39:K40"/>
-    <mergeCell ref="L39:O40"/>
-    <mergeCell ref="P39:S40"/>
-    <mergeCell ref="T39:W40"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
@@ -18342,6 +18330,18 @@
     <mergeCell ref="T1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="H39:K40"/>
+    <mergeCell ref="L39:O40"/>
+    <mergeCell ref="P39:S40"/>
+    <mergeCell ref="T39:W40"/>
+    <mergeCell ref="AM39:AO40"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="L43:O44"/>
+    <mergeCell ref="P43:T44"/>
+    <mergeCell ref="U43:Y44"/>
+    <mergeCell ref="Z43:AD44"/>
+    <mergeCell ref="AE43:AH44"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape"/>
@@ -18359,8 +18359,8 @@
   </sheetPr>
   <dimension ref="A1:AR97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
@@ -18372,170 +18372,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="125" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="174" t="s">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174" t="s">
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="125" t="s">
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="126" t="s">
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="167"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="125" t="s">
+      <c r="AL1" s="167"/>
+      <c r="AM1" s="167"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="127"/>
+      <c r="AP1" s="167"/>
+      <c r="AQ1" s="167"/>
+      <c r="AR1" s="168"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="157" t="str">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="134" t="str">
         <f>T2</f>
         <v>Đọc tên</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="173" t="str">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="176" t="str">
         <f>Cover!C62</f>
         <v>UC_002</v>
       </c>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173" t="str">
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176" t="str">
         <f>Cover!H62</f>
         <v>Đọc tên</v>
       </c>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="157" t="s">
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="132">
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
         <f>DATE(2017,2,12)</f>
         <v>42778</v>
       </c>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="132"/>
-      <c r="AP2" s="132"/>
-      <c r="AQ2" s="132"/>
-      <c r="AR2" s="133"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="141"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="135"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="143"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4"/>
@@ -22944,102 +22944,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="125" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="174" t="s">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174" t="s">
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="125" t="s">
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="126" t="s">
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="167"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="125" t="s">
+      <c r="AL1" s="167"/>
+      <c r="AM1" s="167"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="127"/>
+      <c r="AP1" s="167"/>
+      <c r="AQ1" s="167"/>
+      <c r="AR1" s="168"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="159"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
       <c r="AK2" s="178"/>
       <c r="AL2" s="178"/>
       <c r="AM2" s="178"/>
@@ -23050,42 +23050,42 @@
       <c r="AR2" s="179"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="162"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
       <c r="AK3" s="180"/>
       <c r="AL3" s="180"/>
       <c r="AM3" s="180"/>
